--- a/Java基礎総合課題/テスト計画書_対話型電卓プログラム.xlsx
+++ b/Java基礎総合課題/テスト計画書_対話型電卓プログラム.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18360" windowHeight="4710" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18360" windowHeight="4710" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="134">
   <si>
     <t>No</t>
     <phoneticPr fontId="4"/>
@@ -919,10 +919,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>計算できる範囲は-2147483648～2147483647です</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>入力した値が大きすぎます。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -932,19 +928,6 @@
   </si>
   <si>
     <t>変数ごとに値が保存できていることを確認する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ここの出力はすべて文法エラーの出力になります。</t>
-    <rPh sb="3" eb="5">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ブンポウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シュツリョク</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1021,18 +1004,6 @@
     <rPh sb="19" eb="21">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・変数 代入［数値｜変数］演算子［数値｜変数］演算子［数値｜変数］</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・変数 代入［数値｜変数］演算子［数値｜変数］</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>１パターンやればよい</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1181,6 +1152,51 @@
     <rPh sb="23" eb="25">
       <t>シュウセイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・変数 代入［数値｜変数］演算子［数値｜変数］　※１通りやればよい</t>
+    <rPh sb="26" eb="27">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・変数 代入［数値｜変数］演算子［数値｜変数］演算子［数値｜変数］　※１通りやればよい</t>
+    <rPh sb="36" eb="37">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文法エラーの出力</t>
+    <rPh sb="0" eb="2">
+      <t>ブンポウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出力になります。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ここで入力された出力はすべて文法エラーの</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算できる範囲は-2147483648～2147483647です。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1259,7 +1275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1763,6 +1779,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1776,7 +1886,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1840,12 +1950,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1900,51 +2004,111 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1954,95 +2118,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2687,585 +2821,588 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4" style="26" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="26" customWidth="1"/>
-    <col min="3" max="3" width="10" style="26" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.75" style="26" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="26" customWidth="1"/>
-    <col min="7" max="256" width="9" style="26"/>
-    <col min="257" max="257" width="4" style="26" customWidth="1"/>
-    <col min="258" max="258" width="12.125" style="26" customWidth="1"/>
-    <col min="259" max="259" width="10" style="26" customWidth="1"/>
-    <col min="260" max="260" width="9.375" style="26" customWidth="1"/>
-    <col min="261" max="261" width="79.75" style="26" customWidth="1"/>
-    <col min="262" max="262" width="4.625" style="26" customWidth="1"/>
-    <col min="263" max="512" width="9" style="26"/>
-    <col min="513" max="513" width="4" style="26" customWidth="1"/>
-    <col min="514" max="514" width="12.125" style="26" customWidth="1"/>
-    <col min="515" max="515" width="10" style="26" customWidth="1"/>
-    <col min="516" max="516" width="9.375" style="26" customWidth="1"/>
-    <col min="517" max="517" width="79.75" style="26" customWidth="1"/>
-    <col min="518" max="518" width="4.625" style="26" customWidth="1"/>
-    <col min="519" max="768" width="9" style="26"/>
-    <col min="769" max="769" width="4" style="26" customWidth="1"/>
-    <col min="770" max="770" width="12.125" style="26" customWidth="1"/>
-    <col min="771" max="771" width="10" style="26" customWidth="1"/>
-    <col min="772" max="772" width="9.375" style="26" customWidth="1"/>
-    <col min="773" max="773" width="79.75" style="26" customWidth="1"/>
-    <col min="774" max="774" width="4.625" style="26" customWidth="1"/>
-    <col min="775" max="1024" width="9" style="26"/>
-    <col min="1025" max="1025" width="4" style="26" customWidth="1"/>
-    <col min="1026" max="1026" width="12.125" style="26" customWidth="1"/>
-    <col min="1027" max="1027" width="10" style="26" customWidth="1"/>
-    <col min="1028" max="1028" width="9.375" style="26" customWidth="1"/>
-    <col min="1029" max="1029" width="79.75" style="26" customWidth="1"/>
-    <col min="1030" max="1030" width="4.625" style="26" customWidth="1"/>
-    <col min="1031" max="1280" width="9" style="26"/>
-    <col min="1281" max="1281" width="4" style="26" customWidth="1"/>
-    <col min="1282" max="1282" width="12.125" style="26" customWidth="1"/>
-    <col min="1283" max="1283" width="10" style="26" customWidth="1"/>
-    <col min="1284" max="1284" width="9.375" style="26" customWidth="1"/>
-    <col min="1285" max="1285" width="79.75" style="26" customWidth="1"/>
-    <col min="1286" max="1286" width="4.625" style="26" customWidth="1"/>
-    <col min="1287" max="1536" width="9" style="26"/>
-    <col min="1537" max="1537" width="4" style="26" customWidth="1"/>
-    <col min="1538" max="1538" width="12.125" style="26" customWidth="1"/>
-    <col min="1539" max="1539" width="10" style="26" customWidth="1"/>
-    <col min="1540" max="1540" width="9.375" style="26" customWidth="1"/>
-    <col min="1541" max="1541" width="79.75" style="26" customWidth="1"/>
-    <col min="1542" max="1542" width="4.625" style="26" customWidth="1"/>
-    <col min="1543" max="1792" width="9" style="26"/>
-    <col min="1793" max="1793" width="4" style="26" customWidth="1"/>
-    <col min="1794" max="1794" width="12.125" style="26" customWidth="1"/>
-    <col min="1795" max="1795" width="10" style="26" customWidth="1"/>
-    <col min="1796" max="1796" width="9.375" style="26" customWidth="1"/>
-    <col min="1797" max="1797" width="79.75" style="26" customWidth="1"/>
-    <col min="1798" max="1798" width="4.625" style="26" customWidth="1"/>
-    <col min="1799" max="2048" width="9" style="26"/>
-    <col min="2049" max="2049" width="4" style="26" customWidth="1"/>
-    <col min="2050" max="2050" width="12.125" style="26" customWidth="1"/>
-    <col min="2051" max="2051" width="10" style="26" customWidth="1"/>
-    <col min="2052" max="2052" width="9.375" style="26" customWidth="1"/>
-    <col min="2053" max="2053" width="79.75" style="26" customWidth="1"/>
-    <col min="2054" max="2054" width="4.625" style="26" customWidth="1"/>
-    <col min="2055" max="2304" width="9" style="26"/>
-    <col min="2305" max="2305" width="4" style="26" customWidth="1"/>
-    <col min="2306" max="2306" width="12.125" style="26" customWidth="1"/>
-    <col min="2307" max="2307" width="10" style="26" customWidth="1"/>
-    <col min="2308" max="2308" width="9.375" style="26" customWidth="1"/>
-    <col min="2309" max="2309" width="79.75" style="26" customWidth="1"/>
-    <col min="2310" max="2310" width="4.625" style="26" customWidth="1"/>
-    <col min="2311" max="2560" width="9" style="26"/>
-    <col min="2561" max="2561" width="4" style="26" customWidth="1"/>
-    <col min="2562" max="2562" width="12.125" style="26" customWidth="1"/>
-    <col min="2563" max="2563" width="10" style="26" customWidth="1"/>
-    <col min="2564" max="2564" width="9.375" style="26" customWidth="1"/>
-    <col min="2565" max="2565" width="79.75" style="26" customWidth="1"/>
-    <col min="2566" max="2566" width="4.625" style="26" customWidth="1"/>
-    <col min="2567" max="2816" width="9" style="26"/>
-    <col min="2817" max="2817" width="4" style="26" customWidth="1"/>
-    <col min="2818" max="2818" width="12.125" style="26" customWidth="1"/>
-    <col min="2819" max="2819" width="10" style="26" customWidth="1"/>
-    <col min="2820" max="2820" width="9.375" style="26" customWidth="1"/>
-    <col min="2821" max="2821" width="79.75" style="26" customWidth="1"/>
-    <col min="2822" max="2822" width="4.625" style="26" customWidth="1"/>
-    <col min="2823" max="3072" width="9" style="26"/>
-    <col min="3073" max="3073" width="4" style="26" customWidth="1"/>
-    <col min="3074" max="3074" width="12.125" style="26" customWidth="1"/>
-    <col min="3075" max="3075" width="10" style="26" customWidth="1"/>
-    <col min="3076" max="3076" width="9.375" style="26" customWidth="1"/>
-    <col min="3077" max="3077" width="79.75" style="26" customWidth="1"/>
-    <col min="3078" max="3078" width="4.625" style="26" customWidth="1"/>
-    <col min="3079" max="3328" width="9" style="26"/>
-    <col min="3329" max="3329" width="4" style="26" customWidth="1"/>
-    <col min="3330" max="3330" width="12.125" style="26" customWidth="1"/>
-    <col min="3331" max="3331" width="10" style="26" customWidth="1"/>
-    <col min="3332" max="3332" width="9.375" style="26" customWidth="1"/>
-    <col min="3333" max="3333" width="79.75" style="26" customWidth="1"/>
-    <col min="3334" max="3334" width="4.625" style="26" customWidth="1"/>
-    <col min="3335" max="3584" width="9" style="26"/>
-    <col min="3585" max="3585" width="4" style="26" customWidth="1"/>
-    <col min="3586" max="3586" width="12.125" style="26" customWidth="1"/>
-    <col min="3587" max="3587" width="10" style="26" customWidth="1"/>
-    <col min="3588" max="3588" width="9.375" style="26" customWidth="1"/>
-    <col min="3589" max="3589" width="79.75" style="26" customWidth="1"/>
-    <col min="3590" max="3590" width="4.625" style="26" customWidth="1"/>
-    <col min="3591" max="3840" width="9" style="26"/>
-    <col min="3841" max="3841" width="4" style="26" customWidth="1"/>
-    <col min="3842" max="3842" width="12.125" style="26" customWidth="1"/>
-    <col min="3843" max="3843" width="10" style="26" customWidth="1"/>
-    <col min="3844" max="3844" width="9.375" style="26" customWidth="1"/>
-    <col min="3845" max="3845" width="79.75" style="26" customWidth="1"/>
-    <col min="3846" max="3846" width="4.625" style="26" customWidth="1"/>
-    <col min="3847" max="4096" width="9" style="26"/>
-    <col min="4097" max="4097" width="4" style="26" customWidth="1"/>
-    <col min="4098" max="4098" width="12.125" style="26" customWidth="1"/>
-    <col min="4099" max="4099" width="10" style="26" customWidth="1"/>
-    <col min="4100" max="4100" width="9.375" style="26" customWidth="1"/>
-    <col min="4101" max="4101" width="79.75" style="26" customWidth="1"/>
-    <col min="4102" max="4102" width="4.625" style="26" customWidth="1"/>
-    <col min="4103" max="4352" width="9" style="26"/>
-    <col min="4353" max="4353" width="4" style="26" customWidth="1"/>
-    <col min="4354" max="4354" width="12.125" style="26" customWidth="1"/>
-    <col min="4355" max="4355" width="10" style="26" customWidth="1"/>
-    <col min="4356" max="4356" width="9.375" style="26" customWidth="1"/>
-    <col min="4357" max="4357" width="79.75" style="26" customWidth="1"/>
-    <col min="4358" max="4358" width="4.625" style="26" customWidth="1"/>
-    <col min="4359" max="4608" width="9" style="26"/>
-    <col min="4609" max="4609" width="4" style="26" customWidth="1"/>
-    <col min="4610" max="4610" width="12.125" style="26" customWidth="1"/>
-    <col min="4611" max="4611" width="10" style="26" customWidth="1"/>
-    <col min="4612" max="4612" width="9.375" style="26" customWidth="1"/>
-    <col min="4613" max="4613" width="79.75" style="26" customWidth="1"/>
-    <col min="4614" max="4614" width="4.625" style="26" customWidth="1"/>
-    <col min="4615" max="4864" width="9" style="26"/>
-    <col min="4865" max="4865" width="4" style="26" customWidth="1"/>
-    <col min="4866" max="4866" width="12.125" style="26" customWidth="1"/>
-    <col min="4867" max="4867" width="10" style="26" customWidth="1"/>
-    <col min="4868" max="4868" width="9.375" style="26" customWidth="1"/>
-    <col min="4869" max="4869" width="79.75" style="26" customWidth="1"/>
-    <col min="4870" max="4870" width="4.625" style="26" customWidth="1"/>
-    <col min="4871" max="5120" width="9" style="26"/>
-    <col min="5121" max="5121" width="4" style="26" customWidth="1"/>
-    <col min="5122" max="5122" width="12.125" style="26" customWidth="1"/>
-    <col min="5123" max="5123" width="10" style="26" customWidth="1"/>
-    <col min="5124" max="5124" width="9.375" style="26" customWidth="1"/>
-    <col min="5125" max="5125" width="79.75" style="26" customWidth="1"/>
-    <col min="5126" max="5126" width="4.625" style="26" customWidth="1"/>
-    <col min="5127" max="5376" width="9" style="26"/>
-    <col min="5377" max="5377" width="4" style="26" customWidth="1"/>
-    <col min="5378" max="5378" width="12.125" style="26" customWidth="1"/>
-    <col min="5379" max="5379" width="10" style="26" customWidth="1"/>
-    <col min="5380" max="5380" width="9.375" style="26" customWidth="1"/>
-    <col min="5381" max="5381" width="79.75" style="26" customWidth="1"/>
-    <col min="5382" max="5382" width="4.625" style="26" customWidth="1"/>
-    <col min="5383" max="5632" width="9" style="26"/>
-    <col min="5633" max="5633" width="4" style="26" customWidth="1"/>
-    <col min="5634" max="5634" width="12.125" style="26" customWidth="1"/>
-    <col min="5635" max="5635" width="10" style="26" customWidth="1"/>
-    <col min="5636" max="5636" width="9.375" style="26" customWidth="1"/>
-    <col min="5637" max="5637" width="79.75" style="26" customWidth="1"/>
-    <col min="5638" max="5638" width="4.625" style="26" customWidth="1"/>
-    <col min="5639" max="5888" width="9" style="26"/>
-    <col min="5889" max="5889" width="4" style="26" customWidth="1"/>
-    <col min="5890" max="5890" width="12.125" style="26" customWidth="1"/>
-    <col min="5891" max="5891" width="10" style="26" customWidth="1"/>
-    <col min="5892" max="5892" width="9.375" style="26" customWidth="1"/>
-    <col min="5893" max="5893" width="79.75" style="26" customWidth="1"/>
-    <col min="5894" max="5894" width="4.625" style="26" customWidth="1"/>
-    <col min="5895" max="6144" width="9" style="26"/>
-    <col min="6145" max="6145" width="4" style="26" customWidth="1"/>
-    <col min="6146" max="6146" width="12.125" style="26" customWidth="1"/>
-    <col min="6147" max="6147" width="10" style="26" customWidth="1"/>
-    <col min="6148" max="6148" width="9.375" style="26" customWidth="1"/>
-    <col min="6149" max="6149" width="79.75" style="26" customWidth="1"/>
-    <col min="6150" max="6150" width="4.625" style="26" customWidth="1"/>
-    <col min="6151" max="6400" width="9" style="26"/>
-    <col min="6401" max="6401" width="4" style="26" customWidth="1"/>
-    <col min="6402" max="6402" width="12.125" style="26" customWidth="1"/>
-    <col min="6403" max="6403" width="10" style="26" customWidth="1"/>
-    <col min="6404" max="6404" width="9.375" style="26" customWidth="1"/>
-    <col min="6405" max="6405" width="79.75" style="26" customWidth="1"/>
-    <col min="6406" max="6406" width="4.625" style="26" customWidth="1"/>
-    <col min="6407" max="6656" width="9" style="26"/>
-    <col min="6657" max="6657" width="4" style="26" customWidth="1"/>
-    <col min="6658" max="6658" width="12.125" style="26" customWidth="1"/>
-    <col min="6659" max="6659" width="10" style="26" customWidth="1"/>
-    <col min="6660" max="6660" width="9.375" style="26" customWidth="1"/>
-    <col min="6661" max="6661" width="79.75" style="26" customWidth="1"/>
-    <col min="6662" max="6662" width="4.625" style="26" customWidth="1"/>
-    <col min="6663" max="6912" width="9" style="26"/>
-    <col min="6913" max="6913" width="4" style="26" customWidth="1"/>
-    <col min="6914" max="6914" width="12.125" style="26" customWidth="1"/>
-    <col min="6915" max="6915" width="10" style="26" customWidth="1"/>
-    <col min="6916" max="6916" width="9.375" style="26" customWidth="1"/>
-    <col min="6917" max="6917" width="79.75" style="26" customWidth="1"/>
-    <col min="6918" max="6918" width="4.625" style="26" customWidth="1"/>
-    <col min="6919" max="7168" width="9" style="26"/>
-    <col min="7169" max="7169" width="4" style="26" customWidth="1"/>
-    <col min="7170" max="7170" width="12.125" style="26" customWidth="1"/>
-    <col min="7171" max="7171" width="10" style="26" customWidth="1"/>
-    <col min="7172" max="7172" width="9.375" style="26" customWidth="1"/>
-    <col min="7173" max="7173" width="79.75" style="26" customWidth="1"/>
-    <col min="7174" max="7174" width="4.625" style="26" customWidth="1"/>
-    <col min="7175" max="7424" width="9" style="26"/>
-    <col min="7425" max="7425" width="4" style="26" customWidth="1"/>
-    <col min="7426" max="7426" width="12.125" style="26" customWidth="1"/>
-    <col min="7427" max="7427" width="10" style="26" customWidth="1"/>
-    <col min="7428" max="7428" width="9.375" style="26" customWidth="1"/>
-    <col min="7429" max="7429" width="79.75" style="26" customWidth="1"/>
-    <col min="7430" max="7430" width="4.625" style="26" customWidth="1"/>
-    <col min="7431" max="7680" width="9" style="26"/>
-    <col min="7681" max="7681" width="4" style="26" customWidth="1"/>
-    <col min="7682" max="7682" width="12.125" style="26" customWidth="1"/>
-    <col min="7683" max="7683" width="10" style="26" customWidth="1"/>
-    <col min="7684" max="7684" width="9.375" style="26" customWidth="1"/>
-    <col min="7685" max="7685" width="79.75" style="26" customWidth="1"/>
-    <col min="7686" max="7686" width="4.625" style="26" customWidth="1"/>
-    <col min="7687" max="7936" width="9" style="26"/>
-    <col min="7937" max="7937" width="4" style="26" customWidth="1"/>
-    <col min="7938" max="7938" width="12.125" style="26" customWidth="1"/>
-    <col min="7939" max="7939" width="10" style="26" customWidth="1"/>
-    <col min="7940" max="7940" width="9.375" style="26" customWidth="1"/>
-    <col min="7941" max="7941" width="79.75" style="26" customWidth="1"/>
-    <col min="7942" max="7942" width="4.625" style="26" customWidth="1"/>
-    <col min="7943" max="8192" width="9" style="26"/>
-    <col min="8193" max="8193" width="4" style="26" customWidth="1"/>
-    <col min="8194" max="8194" width="12.125" style="26" customWidth="1"/>
-    <col min="8195" max="8195" width="10" style="26" customWidth="1"/>
-    <col min="8196" max="8196" width="9.375" style="26" customWidth="1"/>
-    <col min="8197" max="8197" width="79.75" style="26" customWidth="1"/>
-    <col min="8198" max="8198" width="4.625" style="26" customWidth="1"/>
-    <col min="8199" max="8448" width="9" style="26"/>
-    <col min="8449" max="8449" width="4" style="26" customWidth="1"/>
-    <col min="8450" max="8450" width="12.125" style="26" customWidth="1"/>
-    <col min="8451" max="8451" width="10" style="26" customWidth="1"/>
-    <col min="8452" max="8452" width="9.375" style="26" customWidth="1"/>
-    <col min="8453" max="8453" width="79.75" style="26" customWidth="1"/>
-    <col min="8454" max="8454" width="4.625" style="26" customWidth="1"/>
-    <col min="8455" max="8704" width="9" style="26"/>
-    <col min="8705" max="8705" width="4" style="26" customWidth="1"/>
-    <col min="8706" max="8706" width="12.125" style="26" customWidth="1"/>
-    <col min="8707" max="8707" width="10" style="26" customWidth="1"/>
-    <col min="8708" max="8708" width="9.375" style="26" customWidth="1"/>
-    <col min="8709" max="8709" width="79.75" style="26" customWidth="1"/>
-    <col min="8710" max="8710" width="4.625" style="26" customWidth="1"/>
-    <col min="8711" max="8960" width="9" style="26"/>
-    <col min="8961" max="8961" width="4" style="26" customWidth="1"/>
-    <col min="8962" max="8962" width="12.125" style="26" customWidth="1"/>
-    <col min="8963" max="8963" width="10" style="26" customWidth="1"/>
-    <col min="8964" max="8964" width="9.375" style="26" customWidth="1"/>
-    <col min="8965" max="8965" width="79.75" style="26" customWidth="1"/>
-    <col min="8966" max="8966" width="4.625" style="26" customWidth="1"/>
-    <col min="8967" max="9216" width="9" style="26"/>
-    <col min="9217" max="9217" width="4" style="26" customWidth="1"/>
-    <col min="9218" max="9218" width="12.125" style="26" customWidth="1"/>
-    <col min="9219" max="9219" width="10" style="26" customWidth="1"/>
-    <col min="9220" max="9220" width="9.375" style="26" customWidth="1"/>
-    <col min="9221" max="9221" width="79.75" style="26" customWidth="1"/>
-    <col min="9222" max="9222" width="4.625" style="26" customWidth="1"/>
-    <col min="9223" max="9472" width="9" style="26"/>
-    <col min="9473" max="9473" width="4" style="26" customWidth="1"/>
-    <col min="9474" max="9474" width="12.125" style="26" customWidth="1"/>
-    <col min="9475" max="9475" width="10" style="26" customWidth="1"/>
-    <col min="9476" max="9476" width="9.375" style="26" customWidth="1"/>
-    <col min="9477" max="9477" width="79.75" style="26" customWidth="1"/>
-    <col min="9478" max="9478" width="4.625" style="26" customWidth="1"/>
-    <col min="9479" max="9728" width="9" style="26"/>
-    <col min="9729" max="9729" width="4" style="26" customWidth="1"/>
-    <col min="9730" max="9730" width="12.125" style="26" customWidth="1"/>
-    <col min="9731" max="9731" width="10" style="26" customWidth="1"/>
-    <col min="9732" max="9732" width="9.375" style="26" customWidth="1"/>
-    <col min="9733" max="9733" width="79.75" style="26" customWidth="1"/>
-    <col min="9734" max="9734" width="4.625" style="26" customWidth="1"/>
-    <col min="9735" max="9984" width="9" style="26"/>
-    <col min="9985" max="9985" width="4" style="26" customWidth="1"/>
-    <col min="9986" max="9986" width="12.125" style="26" customWidth="1"/>
-    <col min="9987" max="9987" width="10" style="26" customWidth="1"/>
-    <col min="9988" max="9988" width="9.375" style="26" customWidth="1"/>
-    <col min="9989" max="9989" width="79.75" style="26" customWidth="1"/>
-    <col min="9990" max="9990" width="4.625" style="26" customWidth="1"/>
-    <col min="9991" max="10240" width="9" style="26"/>
-    <col min="10241" max="10241" width="4" style="26" customWidth="1"/>
-    <col min="10242" max="10242" width="12.125" style="26" customWidth="1"/>
-    <col min="10243" max="10243" width="10" style="26" customWidth="1"/>
-    <col min="10244" max="10244" width="9.375" style="26" customWidth="1"/>
-    <col min="10245" max="10245" width="79.75" style="26" customWidth="1"/>
-    <col min="10246" max="10246" width="4.625" style="26" customWidth="1"/>
-    <col min="10247" max="10496" width="9" style="26"/>
-    <col min="10497" max="10497" width="4" style="26" customWidth="1"/>
-    <col min="10498" max="10498" width="12.125" style="26" customWidth="1"/>
-    <col min="10499" max="10499" width="10" style="26" customWidth="1"/>
-    <col min="10500" max="10500" width="9.375" style="26" customWidth="1"/>
-    <col min="10501" max="10501" width="79.75" style="26" customWidth="1"/>
-    <col min="10502" max="10502" width="4.625" style="26" customWidth="1"/>
-    <col min="10503" max="10752" width="9" style="26"/>
-    <col min="10753" max="10753" width="4" style="26" customWidth="1"/>
-    <col min="10754" max="10754" width="12.125" style="26" customWidth="1"/>
-    <col min="10755" max="10755" width="10" style="26" customWidth="1"/>
-    <col min="10756" max="10756" width="9.375" style="26" customWidth="1"/>
-    <col min="10757" max="10757" width="79.75" style="26" customWidth="1"/>
-    <col min="10758" max="10758" width="4.625" style="26" customWidth="1"/>
-    <col min="10759" max="11008" width="9" style="26"/>
-    <col min="11009" max="11009" width="4" style="26" customWidth="1"/>
-    <col min="11010" max="11010" width="12.125" style="26" customWidth="1"/>
-    <col min="11011" max="11011" width="10" style="26" customWidth="1"/>
-    <col min="11012" max="11012" width="9.375" style="26" customWidth="1"/>
-    <col min="11013" max="11013" width="79.75" style="26" customWidth="1"/>
-    <col min="11014" max="11014" width="4.625" style="26" customWidth="1"/>
-    <col min="11015" max="11264" width="9" style="26"/>
-    <col min="11265" max="11265" width="4" style="26" customWidth="1"/>
-    <col min="11266" max="11266" width="12.125" style="26" customWidth="1"/>
-    <col min="11267" max="11267" width="10" style="26" customWidth="1"/>
-    <col min="11268" max="11268" width="9.375" style="26" customWidth="1"/>
-    <col min="11269" max="11269" width="79.75" style="26" customWidth="1"/>
-    <col min="11270" max="11270" width="4.625" style="26" customWidth="1"/>
-    <col min="11271" max="11520" width="9" style="26"/>
-    <col min="11521" max="11521" width="4" style="26" customWidth="1"/>
-    <col min="11522" max="11522" width="12.125" style="26" customWidth="1"/>
-    <col min="11523" max="11523" width="10" style="26" customWidth="1"/>
-    <col min="11524" max="11524" width="9.375" style="26" customWidth="1"/>
-    <col min="11525" max="11525" width="79.75" style="26" customWidth="1"/>
-    <col min="11526" max="11526" width="4.625" style="26" customWidth="1"/>
-    <col min="11527" max="11776" width="9" style="26"/>
-    <col min="11777" max="11777" width="4" style="26" customWidth="1"/>
-    <col min="11778" max="11778" width="12.125" style="26" customWidth="1"/>
-    <col min="11779" max="11779" width="10" style="26" customWidth="1"/>
-    <col min="11780" max="11780" width="9.375" style="26" customWidth="1"/>
-    <col min="11781" max="11781" width="79.75" style="26" customWidth="1"/>
-    <col min="11782" max="11782" width="4.625" style="26" customWidth="1"/>
-    <col min="11783" max="12032" width="9" style="26"/>
-    <col min="12033" max="12033" width="4" style="26" customWidth="1"/>
-    <col min="12034" max="12034" width="12.125" style="26" customWidth="1"/>
-    <col min="12035" max="12035" width="10" style="26" customWidth="1"/>
-    <col min="12036" max="12036" width="9.375" style="26" customWidth="1"/>
-    <col min="12037" max="12037" width="79.75" style="26" customWidth="1"/>
-    <col min="12038" max="12038" width="4.625" style="26" customWidth="1"/>
-    <col min="12039" max="12288" width="9" style="26"/>
-    <col min="12289" max="12289" width="4" style="26" customWidth="1"/>
-    <col min="12290" max="12290" width="12.125" style="26" customWidth="1"/>
-    <col min="12291" max="12291" width="10" style="26" customWidth="1"/>
-    <col min="12292" max="12292" width="9.375" style="26" customWidth="1"/>
-    <col min="12293" max="12293" width="79.75" style="26" customWidth="1"/>
-    <col min="12294" max="12294" width="4.625" style="26" customWidth="1"/>
-    <col min="12295" max="12544" width="9" style="26"/>
-    <col min="12545" max="12545" width="4" style="26" customWidth="1"/>
-    <col min="12546" max="12546" width="12.125" style="26" customWidth="1"/>
-    <col min="12547" max="12547" width="10" style="26" customWidth="1"/>
-    <col min="12548" max="12548" width="9.375" style="26" customWidth="1"/>
-    <col min="12549" max="12549" width="79.75" style="26" customWidth="1"/>
-    <col min="12550" max="12550" width="4.625" style="26" customWidth="1"/>
-    <col min="12551" max="12800" width="9" style="26"/>
-    <col min="12801" max="12801" width="4" style="26" customWidth="1"/>
-    <col min="12802" max="12802" width="12.125" style="26" customWidth="1"/>
-    <col min="12803" max="12803" width="10" style="26" customWidth="1"/>
-    <col min="12804" max="12804" width="9.375" style="26" customWidth="1"/>
-    <col min="12805" max="12805" width="79.75" style="26" customWidth="1"/>
-    <col min="12806" max="12806" width="4.625" style="26" customWidth="1"/>
-    <col min="12807" max="13056" width="9" style="26"/>
-    <col min="13057" max="13057" width="4" style="26" customWidth="1"/>
-    <col min="13058" max="13058" width="12.125" style="26" customWidth="1"/>
-    <col min="13059" max="13059" width="10" style="26" customWidth="1"/>
-    <col min="13060" max="13060" width="9.375" style="26" customWidth="1"/>
-    <col min="13061" max="13061" width="79.75" style="26" customWidth="1"/>
-    <col min="13062" max="13062" width="4.625" style="26" customWidth="1"/>
-    <col min="13063" max="13312" width="9" style="26"/>
-    <col min="13313" max="13313" width="4" style="26" customWidth="1"/>
-    <col min="13314" max="13314" width="12.125" style="26" customWidth="1"/>
-    <col min="13315" max="13315" width="10" style="26" customWidth="1"/>
-    <col min="13316" max="13316" width="9.375" style="26" customWidth="1"/>
-    <col min="13317" max="13317" width="79.75" style="26" customWidth="1"/>
-    <col min="13318" max="13318" width="4.625" style="26" customWidth="1"/>
-    <col min="13319" max="13568" width="9" style="26"/>
-    <col min="13569" max="13569" width="4" style="26" customWidth="1"/>
-    <col min="13570" max="13570" width="12.125" style="26" customWidth="1"/>
-    <col min="13571" max="13571" width="10" style="26" customWidth="1"/>
-    <col min="13572" max="13572" width="9.375" style="26" customWidth="1"/>
-    <col min="13573" max="13573" width="79.75" style="26" customWidth="1"/>
-    <col min="13574" max="13574" width="4.625" style="26" customWidth="1"/>
-    <col min="13575" max="13824" width="9" style="26"/>
-    <col min="13825" max="13825" width="4" style="26" customWidth="1"/>
-    <col min="13826" max="13826" width="12.125" style="26" customWidth="1"/>
-    <col min="13827" max="13827" width="10" style="26" customWidth="1"/>
-    <col min="13828" max="13828" width="9.375" style="26" customWidth="1"/>
-    <col min="13829" max="13829" width="79.75" style="26" customWidth="1"/>
-    <col min="13830" max="13830" width="4.625" style="26" customWidth="1"/>
-    <col min="13831" max="14080" width="9" style="26"/>
-    <col min="14081" max="14081" width="4" style="26" customWidth="1"/>
-    <col min="14082" max="14082" width="12.125" style="26" customWidth="1"/>
-    <col min="14083" max="14083" width="10" style="26" customWidth="1"/>
-    <col min="14084" max="14084" width="9.375" style="26" customWidth="1"/>
-    <col min="14085" max="14085" width="79.75" style="26" customWidth="1"/>
-    <col min="14086" max="14086" width="4.625" style="26" customWidth="1"/>
-    <col min="14087" max="14336" width="9" style="26"/>
-    <col min="14337" max="14337" width="4" style="26" customWidth="1"/>
-    <col min="14338" max="14338" width="12.125" style="26" customWidth="1"/>
-    <col min="14339" max="14339" width="10" style="26" customWidth="1"/>
-    <col min="14340" max="14340" width="9.375" style="26" customWidth="1"/>
-    <col min="14341" max="14341" width="79.75" style="26" customWidth="1"/>
-    <col min="14342" max="14342" width="4.625" style="26" customWidth="1"/>
-    <col min="14343" max="14592" width="9" style="26"/>
-    <col min="14593" max="14593" width="4" style="26" customWidth="1"/>
-    <col min="14594" max="14594" width="12.125" style="26" customWidth="1"/>
-    <col min="14595" max="14595" width="10" style="26" customWidth="1"/>
-    <col min="14596" max="14596" width="9.375" style="26" customWidth="1"/>
-    <col min="14597" max="14597" width="79.75" style="26" customWidth="1"/>
-    <col min="14598" max="14598" width="4.625" style="26" customWidth="1"/>
-    <col min="14599" max="14848" width="9" style="26"/>
-    <col min="14849" max="14849" width="4" style="26" customWidth="1"/>
-    <col min="14850" max="14850" width="12.125" style="26" customWidth="1"/>
-    <col min="14851" max="14851" width="10" style="26" customWidth="1"/>
-    <col min="14852" max="14852" width="9.375" style="26" customWidth="1"/>
-    <col min="14853" max="14853" width="79.75" style="26" customWidth="1"/>
-    <col min="14854" max="14854" width="4.625" style="26" customWidth="1"/>
-    <col min="14855" max="15104" width="9" style="26"/>
-    <col min="15105" max="15105" width="4" style="26" customWidth="1"/>
-    <col min="15106" max="15106" width="12.125" style="26" customWidth="1"/>
-    <col min="15107" max="15107" width="10" style="26" customWidth="1"/>
-    <col min="15108" max="15108" width="9.375" style="26" customWidth="1"/>
-    <col min="15109" max="15109" width="79.75" style="26" customWidth="1"/>
-    <col min="15110" max="15110" width="4.625" style="26" customWidth="1"/>
-    <col min="15111" max="15360" width="9" style="26"/>
-    <col min="15361" max="15361" width="4" style="26" customWidth="1"/>
-    <col min="15362" max="15362" width="12.125" style="26" customWidth="1"/>
-    <col min="15363" max="15363" width="10" style="26" customWidth="1"/>
-    <col min="15364" max="15364" width="9.375" style="26" customWidth="1"/>
-    <col min="15365" max="15365" width="79.75" style="26" customWidth="1"/>
-    <col min="15366" max="15366" width="4.625" style="26" customWidth="1"/>
-    <col min="15367" max="15616" width="9" style="26"/>
-    <col min="15617" max="15617" width="4" style="26" customWidth="1"/>
-    <col min="15618" max="15618" width="12.125" style="26" customWidth="1"/>
-    <col min="15619" max="15619" width="10" style="26" customWidth="1"/>
-    <col min="15620" max="15620" width="9.375" style="26" customWidth="1"/>
-    <col min="15621" max="15621" width="79.75" style="26" customWidth="1"/>
-    <col min="15622" max="15622" width="4.625" style="26" customWidth="1"/>
-    <col min="15623" max="15872" width="9" style="26"/>
-    <col min="15873" max="15873" width="4" style="26" customWidth="1"/>
-    <col min="15874" max="15874" width="12.125" style="26" customWidth="1"/>
-    <col min="15875" max="15875" width="10" style="26" customWidth="1"/>
-    <col min="15876" max="15876" width="9.375" style="26" customWidth="1"/>
-    <col min="15877" max="15877" width="79.75" style="26" customWidth="1"/>
-    <col min="15878" max="15878" width="4.625" style="26" customWidth="1"/>
-    <col min="15879" max="16128" width="9" style="26"/>
-    <col min="16129" max="16129" width="4" style="26" customWidth="1"/>
-    <col min="16130" max="16130" width="12.125" style="26" customWidth="1"/>
-    <col min="16131" max="16131" width="10" style="26" customWidth="1"/>
-    <col min="16132" max="16132" width="9.375" style="26" customWidth="1"/>
-    <col min="16133" max="16133" width="79.75" style="26" customWidth="1"/>
-    <col min="16134" max="16134" width="4.625" style="26" customWidth="1"/>
-    <col min="16135" max="16384" width="9" style="26"/>
+    <col min="1" max="1" width="4" style="24" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="10" style="24" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.75" style="24" customWidth="1"/>
+    <col min="6" max="6" width="4.625" style="24" customWidth="1"/>
+    <col min="7" max="256" width="9" style="24"/>
+    <col min="257" max="257" width="4" style="24" customWidth="1"/>
+    <col min="258" max="258" width="12.125" style="24" customWidth="1"/>
+    <col min="259" max="259" width="10" style="24" customWidth="1"/>
+    <col min="260" max="260" width="9.375" style="24" customWidth="1"/>
+    <col min="261" max="261" width="79.75" style="24" customWidth="1"/>
+    <col min="262" max="262" width="4.625" style="24" customWidth="1"/>
+    <col min="263" max="512" width="9" style="24"/>
+    <col min="513" max="513" width="4" style="24" customWidth="1"/>
+    <col min="514" max="514" width="12.125" style="24" customWidth="1"/>
+    <col min="515" max="515" width="10" style="24" customWidth="1"/>
+    <col min="516" max="516" width="9.375" style="24" customWidth="1"/>
+    <col min="517" max="517" width="79.75" style="24" customWidth="1"/>
+    <col min="518" max="518" width="4.625" style="24" customWidth="1"/>
+    <col min="519" max="768" width="9" style="24"/>
+    <col min="769" max="769" width="4" style="24" customWidth="1"/>
+    <col min="770" max="770" width="12.125" style="24" customWidth="1"/>
+    <col min="771" max="771" width="10" style="24" customWidth="1"/>
+    <col min="772" max="772" width="9.375" style="24" customWidth="1"/>
+    <col min="773" max="773" width="79.75" style="24" customWidth="1"/>
+    <col min="774" max="774" width="4.625" style="24" customWidth="1"/>
+    <col min="775" max="1024" width="9" style="24"/>
+    <col min="1025" max="1025" width="4" style="24" customWidth="1"/>
+    <col min="1026" max="1026" width="12.125" style="24" customWidth="1"/>
+    <col min="1027" max="1027" width="10" style="24" customWidth="1"/>
+    <col min="1028" max="1028" width="9.375" style="24" customWidth="1"/>
+    <col min="1029" max="1029" width="79.75" style="24" customWidth="1"/>
+    <col min="1030" max="1030" width="4.625" style="24" customWidth="1"/>
+    <col min="1031" max="1280" width="9" style="24"/>
+    <col min="1281" max="1281" width="4" style="24" customWidth="1"/>
+    <col min="1282" max="1282" width="12.125" style="24" customWidth="1"/>
+    <col min="1283" max="1283" width="10" style="24" customWidth="1"/>
+    <col min="1284" max="1284" width="9.375" style="24" customWidth="1"/>
+    <col min="1285" max="1285" width="79.75" style="24" customWidth="1"/>
+    <col min="1286" max="1286" width="4.625" style="24" customWidth="1"/>
+    <col min="1287" max="1536" width="9" style="24"/>
+    <col min="1537" max="1537" width="4" style="24" customWidth="1"/>
+    <col min="1538" max="1538" width="12.125" style="24" customWidth="1"/>
+    <col min="1539" max="1539" width="10" style="24" customWidth="1"/>
+    <col min="1540" max="1540" width="9.375" style="24" customWidth="1"/>
+    <col min="1541" max="1541" width="79.75" style="24" customWidth="1"/>
+    <col min="1542" max="1542" width="4.625" style="24" customWidth="1"/>
+    <col min="1543" max="1792" width="9" style="24"/>
+    <col min="1793" max="1793" width="4" style="24" customWidth="1"/>
+    <col min="1794" max="1794" width="12.125" style="24" customWidth="1"/>
+    <col min="1795" max="1795" width="10" style="24" customWidth="1"/>
+    <col min="1796" max="1796" width="9.375" style="24" customWidth="1"/>
+    <col min="1797" max="1797" width="79.75" style="24" customWidth="1"/>
+    <col min="1798" max="1798" width="4.625" style="24" customWidth="1"/>
+    <col min="1799" max="2048" width="9" style="24"/>
+    <col min="2049" max="2049" width="4" style="24" customWidth="1"/>
+    <col min="2050" max="2050" width="12.125" style="24" customWidth="1"/>
+    <col min="2051" max="2051" width="10" style="24" customWidth="1"/>
+    <col min="2052" max="2052" width="9.375" style="24" customWidth="1"/>
+    <col min="2053" max="2053" width="79.75" style="24" customWidth="1"/>
+    <col min="2054" max="2054" width="4.625" style="24" customWidth="1"/>
+    <col min="2055" max="2304" width="9" style="24"/>
+    <col min="2305" max="2305" width="4" style="24" customWidth="1"/>
+    <col min="2306" max="2306" width="12.125" style="24" customWidth="1"/>
+    <col min="2307" max="2307" width="10" style="24" customWidth="1"/>
+    <col min="2308" max="2308" width="9.375" style="24" customWidth="1"/>
+    <col min="2309" max="2309" width="79.75" style="24" customWidth="1"/>
+    <col min="2310" max="2310" width="4.625" style="24" customWidth="1"/>
+    <col min="2311" max="2560" width="9" style="24"/>
+    <col min="2561" max="2561" width="4" style="24" customWidth="1"/>
+    <col min="2562" max="2562" width="12.125" style="24" customWidth="1"/>
+    <col min="2563" max="2563" width="10" style="24" customWidth="1"/>
+    <col min="2564" max="2564" width="9.375" style="24" customWidth="1"/>
+    <col min="2565" max="2565" width="79.75" style="24" customWidth="1"/>
+    <col min="2566" max="2566" width="4.625" style="24" customWidth="1"/>
+    <col min="2567" max="2816" width="9" style="24"/>
+    <col min="2817" max="2817" width="4" style="24" customWidth="1"/>
+    <col min="2818" max="2818" width="12.125" style="24" customWidth="1"/>
+    <col min="2819" max="2819" width="10" style="24" customWidth="1"/>
+    <col min="2820" max="2820" width="9.375" style="24" customWidth="1"/>
+    <col min="2821" max="2821" width="79.75" style="24" customWidth="1"/>
+    <col min="2822" max="2822" width="4.625" style="24" customWidth="1"/>
+    <col min="2823" max="3072" width="9" style="24"/>
+    <col min="3073" max="3073" width="4" style="24" customWidth="1"/>
+    <col min="3074" max="3074" width="12.125" style="24" customWidth="1"/>
+    <col min="3075" max="3075" width="10" style="24" customWidth="1"/>
+    <col min="3076" max="3076" width="9.375" style="24" customWidth="1"/>
+    <col min="3077" max="3077" width="79.75" style="24" customWidth="1"/>
+    <col min="3078" max="3078" width="4.625" style="24" customWidth="1"/>
+    <col min="3079" max="3328" width="9" style="24"/>
+    <col min="3329" max="3329" width="4" style="24" customWidth="1"/>
+    <col min="3330" max="3330" width="12.125" style="24" customWidth="1"/>
+    <col min="3331" max="3331" width="10" style="24" customWidth="1"/>
+    <col min="3332" max="3332" width="9.375" style="24" customWidth="1"/>
+    <col min="3333" max="3333" width="79.75" style="24" customWidth="1"/>
+    <col min="3334" max="3334" width="4.625" style="24" customWidth="1"/>
+    <col min="3335" max="3584" width="9" style="24"/>
+    <col min="3585" max="3585" width="4" style="24" customWidth="1"/>
+    <col min="3586" max="3586" width="12.125" style="24" customWidth="1"/>
+    <col min="3587" max="3587" width="10" style="24" customWidth="1"/>
+    <col min="3588" max="3588" width="9.375" style="24" customWidth="1"/>
+    <col min="3589" max="3589" width="79.75" style="24" customWidth="1"/>
+    <col min="3590" max="3590" width="4.625" style="24" customWidth="1"/>
+    <col min="3591" max="3840" width="9" style="24"/>
+    <col min="3841" max="3841" width="4" style="24" customWidth="1"/>
+    <col min="3842" max="3842" width="12.125" style="24" customWidth="1"/>
+    <col min="3843" max="3843" width="10" style="24" customWidth="1"/>
+    <col min="3844" max="3844" width="9.375" style="24" customWidth="1"/>
+    <col min="3845" max="3845" width="79.75" style="24" customWidth="1"/>
+    <col min="3846" max="3846" width="4.625" style="24" customWidth="1"/>
+    <col min="3847" max="4096" width="9" style="24"/>
+    <col min="4097" max="4097" width="4" style="24" customWidth="1"/>
+    <col min="4098" max="4098" width="12.125" style="24" customWidth="1"/>
+    <col min="4099" max="4099" width="10" style="24" customWidth="1"/>
+    <col min="4100" max="4100" width="9.375" style="24" customWidth="1"/>
+    <col min="4101" max="4101" width="79.75" style="24" customWidth="1"/>
+    <col min="4102" max="4102" width="4.625" style="24" customWidth="1"/>
+    <col min="4103" max="4352" width="9" style="24"/>
+    <col min="4353" max="4353" width="4" style="24" customWidth="1"/>
+    <col min="4354" max="4354" width="12.125" style="24" customWidth="1"/>
+    <col min="4355" max="4355" width="10" style="24" customWidth="1"/>
+    <col min="4356" max="4356" width="9.375" style="24" customWidth="1"/>
+    <col min="4357" max="4357" width="79.75" style="24" customWidth="1"/>
+    <col min="4358" max="4358" width="4.625" style="24" customWidth="1"/>
+    <col min="4359" max="4608" width="9" style="24"/>
+    <col min="4609" max="4609" width="4" style="24" customWidth="1"/>
+    <col min="4610" max="4610" width="12.125" style="24" customWidth="1"/>
+    <col min="4611" max="4611" width="10" style="24" customWidth="1"/>
+    <col min="4612" max="4612" width="9.375" style="24" customWidth="1"/>
+    <col min="4613" max="4613" width="79.75" style="24" customWidth="1"/>
+    <col min="4614" max="4614" width="4.625" style="24" customWidth="1"/>
+    <col min="4615" max="4864" width="9" style="24"/>
+    <col min="4865" max="4865" width="4" style="24" customWidth="1"/>
+    <col min="4866" max="4866" width="12.125" style="24" customWidth="1"/>
+    <col min="4867" max="4867" width="10" style="24" customWidth="1"/>
+    <col min="4868" max="4868" width="9.375" style="24" customWidth="1"/>
+    <col min="4869" max="4869" width="79.75" style="24" customWidth="1"/>
+    <col min="4870" max="4870" width="4.625" style="24" customWidth="1"/>
+    <col min="4871" max="5120" width="9" style="24"/>
+    <col min="5121" max="5121" width="4" style="24" customWidth="1"/>
+    <col min="5122" max="5122" width="12.125" style="24" customWidth="1"/>
+    <col min="5123" max="5123" width="10" style="24" customWidth="1"/>
+    <col min="5124" max="5124" width="9.375" style="24" customWidth="1"/>
+    <col min="5125" max="5125" width="79.75" style="24" customWidth="1"/>
+    <col min="5126" max="5126" width="4.625" style="24" customWidth="1"/>
+    <col min="5127" max="5376" width="9" style="24"/>
+    <col min="5377" max="5377" width="4" style="24" customWidth="1"/>
+    <col min="5378" max="5378" width="12.125" style="24" customWidth="1"/>
+    <col min="5379" max="5379" width="10" style="24" customWidth="1"/>
+    <col min="5380" max="5380" width="9.375" style="24" customWidth="1"/>
+    <col min="5381" max="5381" width="79.75" style="24" customWidth="1"/>
+    <col min="5382" max="5382" width="4.625" style="24" customWidth="1"/>
+    <col min="5383" max="5632" width="9" style="24"/>
+    <col min="5633" max="5633" width="4" style="24" customWidth="1"/>
+    <col min="5634" max="5634" width="12.125" style="24" customWidth="1"/>
+    <col min="5635" max="5635" width="10" style="24" customWidth="1"/>
+    <col min="5636" max="5636" width="9.375" style="24" customWidth="1"/>
+    <col min="5637" max="5637" width="79.75" style="24" customWidth="1"/>
+    <col min="5638" max="5638" width="4.625" style="24" customWidth="1"/>
+    <col min="5639" max="5888" width="9" style="24"/>
+    <col min="5889" max="5889" width="4" style="24" customWidth="1"/>
+    <col min="5890" max="5890" width="12.125" style="24" customWidth="1"/>
+    <col min="5891" max="5891" width="10" style="24" customWidth="1"/>
+    <col min="5892" max="5892" width="9.375" style="24" customWidth="1"/>
+    <col min="5893" max="5893" width="79.75" style="24" customWidth="1"/>
+    <col min="5894" max="5894" width="4.625" style="24" customWidth="1"/>
+    <col min="5895" max="6144" width="9" style="24"/>
+    <col min="6145" max="6145" width="4" style="24" customWidth="1"/>
+    <col min="6146" max="6146" width="12.125" style="24" customWidth="1"/>
+    <col min="6147" max="6147" width="10" style="24" customWidth="1"/>
+    <col min="6148" max="6148" width="9.375" style="24" customWidth="1"/>
+    <col min="6149" max="6149" width="79.75" style="24" customWidth="1"/>
+    <col min="6150" max="6150" width="4.625" style="24" customWidth="1"/>
+    <col min="6151" max="6400" width="9" style="24"/>
+    <col min="6401" max="6401" width="4" style="24" customWidth="1"/>
+    <col min="6402" max="6402" width="12.125" style="24" customWidth="1"/>
+    <col min="6403" max="6403" width="10" style="24" customWidth="1"/>
+    <col min="6404" max="6404" width="9.375" style="24" customWidth="1"/>
+    <col min="6405" max="6405" width="79.75" style="24" customWidth="1"/>
+    <col min="6406" max="6406" width="4.625" style="24" customWidth="1"/>
+    <col min="6407" max="6656" width="9" style="24"/>
+    <col min="6657" max="6657" width="4" style="24" customWidth="1"/>
+    <col min="6658" max="6658" width="12.125" style="24" customWidth="1"/>
+    <col min="6659" max="6659" width="10" style="24" customWidth="1"/>
+    <col min="6660" max="6660" width="9.375" style="24" customWidth="1"/>
+    <col min="6661" max="6661" width="79.75" style="24" customWidth="1"/>
+    <col min="6662" max="6662" width="4.625" style="24" customWidth="1"/>
+    <col min="6663" max="6912" width="9" style="24"/>
+    <col min="6913" max="6913" width="4" style="24" customWidth="1"/>
+    <col min="6914" max="6914" width="12.125" style="24" customWidth="1"/>
+    <col min="6915" max="6915" width="10" style="24" customWidth="1"/>
+    <col min="6916" max="6916" width="9.375" style="24" customWidth="1"/>
+    <col min="6917" max="6917" width="79.75" style="24" customWidth="1"/>
+    <col min="6918" max="6918" width="4.625" style="24" customWidth="1"/>
+    <col min="6919" max="7168" width="9" style="24"/>
+    <col min="7169" max="7169" width="4" style="24" customWidth="1"/>
+    <col min="7170" max="7170" width="12.125" style="24" customWidth="1"/>
+    <col min="7171" max="7171" width="10" style="24" customWidth="1"/>
+    <col min="7172" max="7172" width="9.375" style="24" customWidth="1"/>
+    <col min="7173" max="7173" width="79.75" style="24" customWidth="1"/>
+    <col min="7174" max="7174" width="4.625" style="24" customWidth="1"/>
+    <col min="7175" max="7424" width="9" style="24"/>
+    <col min="7425" max="7425" width="4" style="24" customWidth="1"/>
+    <col min="7426" max="7426" width="12.125" style="24" customWidth="1"/>
+    <col min="7427" max="7427" width="10" style="24" customWidth="1"/>
+    <col min="7428" max="7428" width="9.375" style="24" customWidth="1"/>
+    <col min="7429" max="7429" width="79.75" style="24" customWidth="1"/>
+    <col min="7430" max="7430" width="4.625" style="24" customWidth="1"/>
+    <col min="7431" max="7680" width="9" style="24"/>
+    <col min="7681" max="7681" width="4" style="24" customWidth="1"/>
+    <col min="7682" max="7682" width="12.125" style="24" customWidth="1"/>
+    <col min="7683" max="7683" width="10" style="24" customWidth="1"/>
+    <col min="7684" max="7684" width="9.375" style="24" customWidth="1"/>
+    <col min="7685" max="7685" width="79.75" style="24" customWidth="1"/>
+    <col min="7686" max="7686" width="4.625" style="24" customWidth="1"/>
+    <col min="7687" max="7936" width="9" style="24"/>
+    <col min="7937" max="7937" width="4" style="24" customWidth="1"/>
+    <col min="7938" max="7938" width="12.125" style="24" customWidth="1"/>
+    <col min="7939" max="7939" width="10" style="24" customWidth="1"/>
+    <col min="7940" max="7940" width="9.375" style="24" customWidth="1"/>
+    <col min="7941" max="7941" width="79.75" style="24" customWidth="1"/>
+    <col min="7942" max="7942" width="4.625" style="24" customWidth="1"/>
+    <col min="7943" max="8192" width="9" style="24"/>
+    <col min="8193" max="8193" width="4" style="24" customWidth="1"/>
+    <col min="8194" max="8194" width="12.125" style="24" customWidth="1"/>
+    <col min="8195" max="8195" width="10" style="24" customWidth="1"/>
+    <col min="8196" max="8196" width="9.375" style="24" customWidth="1"/>
+    <col min="8197" max="8197" width="79.75" style="24" customWidth="1"/>
+    <col min="8198" max="8198" width="4.625" style="24" customWidth="1"/>
+    <col min="8199" max="8448" width="9" style="24"/>
+    <col min="8449" max="8449" width="4" style="24" customWidth="1"/>
+    <col min="8450" max="8450" width="12.125" style="24" customWidth="1"/>
+    <col min="8451" max="8451" width="10" style="24" customWidth="1"/>
+    <col min="8452" max="8452" width="9.375" style="24" customWidth="1"/>
+    <col min="8453" max="8453" width="79.75" style="24" customWidth="1"/>
+    <col min="8454" max="8454" width="4.625" style="24" customWidth="1"/>
+    <col min="8455" max="8704" width="9" style="24"/>
+    <col min="8705" max="8705" width="4" style="24" customWidth="1"/>
+    <col min="8706" max="8706" width="12.125" style="24" customWidth="1"/>
+    <col min="8707" max="8707" width="10" style="24" customWidth="1"/>
+    <col min="8708" max="8708" width="9.375" style="24" customWidth="1"/>
+    <col min="8709" max="8709" width="79.75" style="24" customWidth="1"/>
+    <col min="8710" max="8710" width="4.625" style="24" customWidth="1"/>
+    <col min="8711" max="8960" width="9" style="24"/>
+    <col min="8961" max="8961" width="4" style="24" customWidth="1"/>
+    <col min="8962" max="8962" width="12.125" style="24" customWidth="1"/>
+    <col min="8963" max="8963" width="10" style="24" customWidth="1"/>
+    <col min="8964" max="8964" width="9.375" style="24" customWidth="1"/>
+    <col min="8965" max="8965" width="79.75" style="24" customWidth="1"/>
+    <col min="8966" max="8966" width="4.625" style="24" customWidth="1"/>
+    <col min="8967" max="9216" width="9" style="24"/>
+    <col min="9217" max="9217" width="4" style="24" customWidth="1"/>
+    <col min="9218" max="9218" width="12.125" style="24" customWidth="1"/>
+    <col min="9219" max="9219" width="10" style="24" customWidth="1"/>
+    <col min="9220" max="9220" width="9.375" style="24" customWidth="1"/>
+    <col min="9221" max="9221" width="79.75" style="24" customWidth="1"/>
+    <col min="9222" max="9222" width="4.625" style="24" customWidth="1"/>
+    <col min="9223" max="9472" width="9" style="24"/>
+    <col min="9473" max="9473" width="4" style="24" customWidth="1"/>
+    <col min="9474" max="9474" width="12.125" style="24" customWidth="1"/>
+    <col min="9475" max="9475" width="10" style="24" customWidth="1"/>
+    <col min="9476" max="9476" width="9.375" style="24" customWidth="1"/>
+    <col min="9477" max="9477" width="79.75" style="24" customWidth="1"/>
+    <col min="9478" max="9478" width="4.625" style="24" customWidth="1"/>
+    <col min="9479" max="9728" width="9" style="24"/>
+    <col min="9729" max="9729" width="4" style="24" customWidth="1"/>
+    <col min="9730" max="9730" width="12.125" style="24" customWidth="1"/>
+    <col min="9731" max="9731" width="10" style="24" customWidth="1"/>
+    <col min="9732" max="9732" width="9.375" style="24" customWidth="1"/>
+    <col min="9733" max="9733" width="79.75" style="24" customWidth="1"/>
+    <col min="9734" max="9734" width="4.625" style="24" customWidth="1"/>
+    <col min="9735" max="9984" width="9" style="24"/>
+    <col min="9985" max="9985" width="4" style="24" customWidth="1"/>
+    <col min="9986" max="9986" width="12.125" style="24" customWidth="1"/>
+    <col min="9987" max="9987" width="10" style="24" customWidth="1"/>
+    <col min="9988" max="9988" width="9.375" style="24" customWidth="1"/>
+    <col min="9989" max="9989" width="79.75" style="24" customWidth="1"/>
+    <col min="9990" max="9990" width="4.625" style="24" customWidth="1"/>
+    <col min="9991" max="10240" width="9" style="24"/>
+    <col min="10241" max="10241" width="4" style="24" customWidth="1"/>
+    <col min="10242" max="10242" width="12.125" style="24" customWidth="1"/>
+    <col min="10243" max="10243" width="10" style="24" customWidth="1"/>
+    <col min="10244" max="10244" width="9.375" style="24" customWidth="1"/>
+    <col min="10245" max="10245" width="79.75" style="24" customWidth="1"/>
+    <col min="10246" max="10246" width="4.625" style="24" customWidth="1"/>
+    <col min="10247" max="10496" width="9" style="24"/>
+    <col min="10497" max="10497" width="4" style="24" customWidth="1"/>
+    <col min="10498" max="10498" width="12.125" style="24" customWidth="1"/>
+    <col min="10499" max="10499" width="10" style="24" customWidth="1"/>
+    <col min="10500" max="10500" width="9.375" style="24" customWidth="1"/>
+    <col min="10501" max="10501" width="79.75" style="24" customWidth="1"/>
+    <col min="10502" max="10502" width="4.625" style="24" customWidth="1"/>
+    <col min="10503" max="10752" width="9" style="24"/>
+    <col min="10753" max="10753" width="4" style="24" customWidth="1"/>
+    <col min="10754" max="10754" width="12.125" style="24" customWidth="1"/>
+    <col min="10755" max="10755" width="10" style="24" customWidth="1"/>
+    <col min="10756" max="10756" width="9.375" style="24" customWidth="1"/>
+    <col min="10757" max="10757" width="79.75" style="24" customWidth="1"/>
+    <col min="10758" max="10758" width="4.625" style="24" customWidth="1"/>
+    <col min="10759" max="11008" width="9" style="24"/>
+    <col min="11009" max="11009" width="4" style="24" customWidth="1"/>
+    <col min="11010" max="11010" width="12.125" style="24" customWidth="1"/>
+    <col min="11011" max="11011" width="10" style="24" customWidth="1"/>
+    <col min="11012" max="11012" width="9.375" style="24" customWidth="1"/>
+    <col min="11013" max="11013" width="79.75" style="24" customWidth="1"/>
+    <col min="11014" max="11014" width="4.625" style="24" customWidth="1"/>
+    <col min="11015" max="11264" width="9" style="24"/>
+    <col min="11265" max="11265" width="4" style="24" customWidth="1"/>
+    <col min="11266" max="11266" width="12.125" style="24" customWidth="1"/>
+    <col min="11267" max="11267" width="10" style="24" customWidth="1"/>
+    <col min="11268" max="11268" width="9.375" style="24" customWidth="1"/>
+    <col min="11269" max="11269" width="79.75" style="24" customWidth="1"/>
+    <col min="11270" max="11270" width="4.625" style="24" customWidth="1"/>
+    <col min="11271" max="11520" width="9" style="24"/>
+    <col min="11521" max="11521" width="4" style="24" customWidth="1"/>
+    <col min="11522" max="11522" width="12.125" style="24" customWidth="1"/>
+    <col min="11523" max="11523" width="10" style="24" customWidth="1"/>
+    <col min="11524" max="11524" width="9.375" style="24" customWidth="1"/>
+    <col min="11525" max="11525" width="79.75" style="24" customWidth="1"/>
+    <col min="11526" max="11526" width="4.625" style="24" customWidth="1"/>
+    <col min="11527" max="11776" width="9" style="24"/>
+    <col min="11777" max="11777" width="4" style="24" customWidth="1"/>
+    <col min="11778" max="11778" width="12.125" style="24" customWidth="1"/>
+    <col min="11779" max="11779" width="10" style="24" customWidth="1"/>
+    <col min="11780" max="11780" width="9.375" style="24" customWidth="1"/>
+    <col min="11781" max="11781" width="79.75" style="24" customWidth="1"/>
+    <col min="11782" max="11782" width="4.625" style="24" customWidth="1"/>
+    <col min="11783" max="12032" width="9" style="24"/>
+    <col min="12033" max="12033" width="4" style="24" customWidth="1"/>
+    <col min="12034" max="12034" width="12.125" style="24" customWidth="1"/>
+    <col min="12035" max="12035" width="10" style="24" customWidth="1"/>
+    <col min="12036" max="12036" width="9.375" style="24" customWidth="1"/>
+    <col min="12037" max="12037" width="79.75" style="24" customWidth="1"/>
+    <col min="12038" max="12038" width="4.625" style="24" customWidth="1"/>
+    <col min="12039" max="12288" width="9" style="24"/>
+    <col min="12289" max="12289" width="4" style="24" customWidth="1"/>
+    <col min="12290" max="12290" width="12.125" style="24" customWidth="1"/>
+    <col min="12291" max="12291" width="10" style="24" customWidth="1"/>
+    <col min="12292" max="12292" width="9.375" style="24" customWidth="1"/>
+    <col min="12293" max="12293" width="79.75" style="24" customWidth="1"/>
+    <col min="12294" max="12294" width="4.625" style="24" customWidth="1"/>
+    <col min="12295" max="12544" width="9" style="24"/>
+    <col min="12545" max="12545" width="4" style="24" customWidth="1"/>
+    <col min="12546" max="12546" width="12.125" style="24" customWidth="1"/>
+    <col min="12547" max="12547" width="10" style="24" customWidth="1"/>
+    <col min="12548" max="12548" width="9.375" style="24" customWidth="1"/>
+    <col min="12549" max="12549" width="79.75" style="24" customWidth="1"/>
+    <col min="12550" max="12550" width="4.625" style="24" customWidth="1"/>
+    <col min="12551" max="12800" width="9" style="24"/>
+    <col min="12801" max="12801" width="4" style="24" customWidth="1"/>
+    <col min="12802" max="12802" width="12.125" style="24" customWidth="1"/>
+    <col min="12803" max="12803" width="10" style="24" customWidth="1"/>
+    <col min="12804" max="12804" width="9.375" style="24" customWidth="1"/>
+    <col min="12805" max="12805" width="79.75" style="24" customWidth="1"/>
+    <col min="12806" max="12806" width="4.625" style="24" customWidth="1"/>
+    <col min="12807" max="13056" width="9" style="24"/>
+    <col min="13057" max="13057" width="4" style="24" customWidth="1"/>
+    <col min="13058" max="13058" width="12.125" style="24" customWidth="1"/>
+    <col min="13059" max="13059" width="10" style="24" customWidth="1"/>
+    <col min="13060" max="13060" width="9.375" style="24" customWidth="1"/>
+    <col min="13061" max="13061" width="79.75" style="24" customWidth="1"/>
+    <col min="13062" max="13062" width="4.625" style="24" customWidth="1"/>
+    <col min="13063" max="13312" width="9" style="24"/>
+    <col min="13313" max="13313" width="4" style="24" customWidth="1"/>
+    <col min="13314" max="13314" width="12.125" style="24" customWidth="1"/>
+    <col min="13315" max="13315" width="10" style="24" customWidth="1"/>
+    <col min="13316" max="13316" width="9.375" style="24" customWidth="1"/>
+    <col min="13317" max="13317" width="79.75" style="24" customWidth="1"/>
+    <col min="13318" max="13318" width="4.625" style="24" customWidth="1"/>
+    <col min="13319" max="13568" width="9" style="24"/>
+    <col min="13569" max="13569" width="4" style="24" customWidth="1"/>
+    <col min="13570" max="13570" width="12.125" style="24" customWidth="1"/>
+    <col min="13571" max="13571" width="10" style="24" customWidth="1"/>
+    <col min="13572" max="13572" width="9.375" style="24" customWidth="1"/>
+    <col min="13573" max="13573" width="79.75" style="24" customWidth="1"/>
+    <col min="13574" max="13574" width="4.625" style="24" customWidth="1"/>
+    <col min="13575" max="13824" width="9" style="24"/>
+    <col min="13825" max="13825" width="4" style="24" customWidth="1"/>
+    <col min="13826" max="13826" width="12.125" style="24" customWidth="1"/>
+    <col min="13827" max="13827" width="10" style="24" customWidth="1"/>
+    <col min="13828" max="13828" width="9.375" style="24" customWidth="1"/>
+    <col min="13829" max="13829" width="79.75" style="24" customWidth="1"/>
+    <col min="13830" max="13830" width="4.625" style="24" customWidth="1"/>
+    <col min="13831" max="14080" width="9" style="24"/>
+    <col min="14081" max="14081" width="4" style="24" customWidth="1"/>
+    <col min="14082" max="14082" width="12.125" style="24" customWidth="1"/>
+    <col min="14083" max="14083" width="10" style="24" customWidth="1"/>
+    <col min="14084" max="14084" width="9.375" style="24" customWidth="1"/>
+    <col min="14085" max="14085" width="79.75" style="24" customWidth="1"/>
+    <col min="14086" max="14086" width="4.625" style="24" customWidth="1"/>
+    <col min="14087" max="14336" width="9" style="24"/>
+    <col min="14337" max="14337" width="4" style="24" customWidth="1"/>
+    <col min="14338" max="14338" width="12.125" style="24" customWidth="1"/>
+    <col min="14339" max="14339" width="10" style="24" customWidth="1"/>
+    <col min="14340" max="14340" width="9.375" style="24" customWidth="1"/>
+    <col min="14341" max="14341" width="79.75" style="24" customWidth="1"/>
+    <col min="14342" max="14342" width="4.625" style="24" customWidth="1"/>
+    <col min="14343" max="14592" width="9" style="24"/>
+    <col min="14593" max="14593" width="4" style="24" customWidth="1"/>
+    <col min="14594" max="14594" width="12.125" style="24" customWidth="1"/>
+    <col min="14595" max="14595" width="10" style="24" customWidth="1"/>
+    <col min="14596" max="14596" width="9.375" style="24" customWidth="1"/>
+    <col min="14597" max="14597" width="79.75" style="24" customWidth="1"/>
+    <col min="14598" max="14598" width="4.625" style="24" customWidth="1"/>
+    <col min="14599" max="14848" width="9" style="24"/>
+    <col min="14849" max="14849" width="4" style="24" customWidth="1"/>
+    <col min="14850" max="14850" width="12.125" style="24" customWidth="1"/>
+    <col min="14851" max="14851" width="10" style="24" customWidth="1"/>
+    <col min="14852" max="14852" width="9.375" style="24" customWidth="1"/>
+    <col min="14853" max="14853" width="79.75" style="24" customWidth="1"/>
+    <col min="14854" max="14854" width="4.625" style="24" customWidth="1"/>
+    <col min="14855" max="15104" width="9" style="24"/>
+    <col min="15105" max="15105" width="4" style="24" customWidth="1"/>
+    <col min="15106" max="15106" width="12.125" style="24" customWidth="1"/>
+    <col min="15107" max="15107" width="10" style="24" customWidth="1"/>
+    <col min="15108" max="15108" width="9.375" style="24" customWidth="1"/>
+    <col min="15109" max="15109" width="79.75" style="24" customWidth="1"/>
+    <col min="15110" max="15110" width="4.625" style="24" customWidth="1"/>
+    <col min="15111" max="15360" width="9" style="24"/>
+    <col min="15361" max="15361" width="4" style="24" customWidth="1"/>
+    <col min="15362" max="15362" width="12.125" style="24" customWidth="1"/>
+    <col min="15363" max="15363" width="10" style="24" customWidth="1"/>
+    <col min="15364" max="15364" width="9.375" style="24" customWidth="1"/>
+    <col min="15365" max="15365" width="79.75" style="24" customWidth="1"/>
+    <col min="15366" max="15366" width="4.625" style="24" customWidth="1"/>
+    <col min="15367" max="15616" width="9" style="24"/>
+    <col min="15617" max="15617" width="4" style="24" customWidth="1"/>
+    <col min="15618" max="15618" width="12.125" style="24" customWidth="1"/>
+    <col min="15619" max="15619" width="10" style="24" customWidth="1"/>
+    <col min="15620" max="15620" width="9.375" style="24" customWidth="1"/>
+    <col min="15621" max="15621" width="79.75" style="24" customWidth="1"/>
+    <col min="15622" max="15622" width="4.625" style="24" customWidth="1"/>
+    <col min="15623" max="15872" width="9" style="24"/>
+    <col min="15873" max="15873" width="4" style="24" customWidth="1"/>
+    <col min="15874" max="15874" width="12.125" style="24" customWidth="1"/>
+    <col min="15875" max="15875" width="10" style="24" customWidth="1"/>
+    <col min="15876" max="15876" width="9.375" style="24" customWidth="1"/>
+    <col min="15877" max="15877" width="79.75" style="24" customWidth="1"/>
+    <col min="15878" max="15878" width="4.625" style="24" customWidth="1"/>
+    <col min="15879" max="16128" width="9" style="24"/>
+    <col min="16129" max="16129" width="4" style="24" customWidth="1"/>
+    <col min="16130" max="16130" width="12.125" style="24" customWidth="1"/>
+    <col min="16131" max="16131" width="10" style="24" customWidth="1"/>
+    <col min="16132" max="16132" width="9.375" style="24" customWidth="1"/>
+    <col min="16133" max="16133" width="79.75" style="24" customWidth="1"/>
+    <col min="16134" max="16134" width="4.625" style="24" customWidth="1"/>
+    <col min="16135" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="27" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="30">
+      <c r="B4" s="28">
         <v>42849</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="31" t="s">
+      <c r="C4" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="30" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="33">
+      <c r="B5" s="31">
         <v>42849</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="31">
+        <v>42849</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="31">
+        <v>42849</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="31">
+        <v>42849</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="31">
+        <v>42849</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="33">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="67">
         <v>42849</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="34" t="s">
+      <c r="C10" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="69" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="33">
-        <v>42849</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="33">
-        <v>42849</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="33">
-        <v>42849</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="86">
-        <v>42849</v>
-      </c>
-      <c r="C10" s="87" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="88" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.82677165354330717" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3277,9 +3414,9 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -3801,7 +3938,7 @@
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
@@ -3835,7 +3972,7 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="70" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -3850,9 +3987,9 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="40" t="s">
-        <v>108</v>
+      <c r="B4" s="71"/>
+      <c r="C4" s="38" t="s">
+        <v>107</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="20"/>
@@ -3878,10 +4015,10 @@
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="53" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="19"/>
@@ -3893,9 +4030,9 @@
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="79" t="s">
-        <v>114</v>
+      <c r="B7" s="71"/>
+      <c r="C7" s="63" t="s">
+        <v>112</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="20"/>
@@ -3909,7 +4046,7 @@
       <c r="B8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="53" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="19"/>
@@ -3918,105 +4055,103 @@
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A9" s="64">
+      <c r="A9" s="54">
         <v>7</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="62" t="s">
-        <v>119</v>
+      <c r="C9" s="53" t="s">
+        <v>117</v>
       </c>
       <c r="D9" s="19"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="64">
+      <c r="A10" s="54">
         <v>8</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="62" t="s">
+      <c r="B10" s="72"/>
+      <c r="C10" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="54">
+        <v>9</v>
+      </c>
+      <c r="B11" s="72"/>
+      <c r="C11" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="54">
+        <v>10</v>
+      </c>
+      <c r="B12" s="72"/>
+      <c r="C12" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="64">
-        <v>9</v>
-      </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="64">
-        <v>10</v>
-      </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="62" t="s">
-        <v>118</v>
-      </c>
       <c r="D12" s="19"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="64">
+      <c r="A13" s="54">
         <v>11</v>
       </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="62" t="s">
-        <v>121</v>
+      <c r="B13" s="72"/>
+      <c r="C13" s="53" t="s">
+        <v>128</v>
       </c>
       <c r="D13" s="19"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="84" t="s">
-        <v>122</v>
-      </c>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="64">
+      <c r="A14" s="54">
         <v>12</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="62" t="s">
-        <v>120</v>
+      <c r="B14" s="71"/>
+      <c r="C14" s="53" t="s">
+        <v>129</v>
       </c>
       <c r="D14" s="19"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="85"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="77"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="64">
+      <c r="A15" s="54">
         <v>13</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="81" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+      <c r="C15" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="52"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="96" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="4"/>
@@ -4026,13 +4161,13 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="64">
+      <c r="A17" s="6">
         <v>13</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="37" t="s">
         <v>99</v>
       </c>
       <c r="D17" s="19"/>
@@ -4050,19 +4185,19 @@
       <c r="C18" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="7"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" s="12" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A19" s="64">
+      <c r="A19" s="54">
         <v>15</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="66" t="s">
         <v>101</v>
       </c>
       <c r="D19" s="19"/>
@@ -4071,39 +4206,30 @@
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" s="12" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="6">
+      <c r="A20" s="78">
         <v>16</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="21"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
-    </row>
+      <c r="D20" s="81"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B9:B14"/>
-    <mergeCell ref="G13:G14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.42" right="0.46" top="0.34" bottom="0.33" header="0.35" footer="0.28999999999999998"/>
-  <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="88" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
@@ -4114,14 +4240,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="43" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="39" customWidth="1"/>
     <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
@@ -4130,770 +4256,774 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
-      <c r="H1" s="45" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
+      <c r="H1" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="56" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="H2" s="45" t="s">
+      <c r="E2" s="76"/>
+      <c r="H2" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="55" t="s">
+      <c r="I2" s="73"/>
+      <c r="J2" s="49" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="H3" s="46" t="s">
+      <c r="E3" s="40"/>
+      <c r="H3" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="71" t="s">
+      <c r="I3" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="40" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="41">
         <v>1</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="H4" s="46" t="s">
+      <c r="E4" s="40"/>
+      <c r="H4" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="72" t="s">
+      <c r="I4" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="56"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B5" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="H5" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="46"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="50" t="s">
+      <c r="J5" s="55"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="41">
+        <v>1</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="H6" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="I6" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="45"/>
+      <c r="E7" s="40"/>
+      <c r="H7" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" s="56"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="41">
+        <v>2</v>
+      </c>
+      <c r="D8" s="45"/>
+      <c r="E8" s="40"/>
+      <c r="H8" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="J8" s="55"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="40"/>
+      <c r="H9" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="41">
+        <v>2</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="40"/>
+      <c r="H10" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="40"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="40"/>
+      <c r="H11" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="41">
+        <v>3</v>
+      </c>
+      <c r="D12" s="45"/>
+      <c r="E12" s="40"/>
+      <c r="H12" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" s="58" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B13" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="45"/>
+      <c r="E13" s="40"/>
+      <c r="H13" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="90">
+        <v>-10</v>
+      </c>
+      <c r="J13" s="57" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B14" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="41">
+        <v>3</v>
+      </c>
+      <c r="D14" s="45"/>
+      <c r="E14" s="40"/>
+      <c r="H14" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="57"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B15" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="45"/>
+      <c r="E15" s="40"/>
+      <c r="H15" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="57"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B16" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="41">
+        <v>4</v>
+      </c>
+      <c r="D16" s="45"/>
+      <c r="E16" s="40"/>
+      <c r="H16" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="J16" s="57"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B17" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="45"/>
+      <c r="E17" s="40"/>
+      <c r="H17" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="57"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B18" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="41">
+        <v>4</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="H18" s="92" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="93"/>
+      <c r="J18" s="55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="H5" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="J5" s="46"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="50" t="s">
+      <c r="E19" s="40"/>
+      <c r="H19" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="47">
+      <c r="I19" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="56" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B20" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="41">
         <v>1</v>
       </c>
-      <c r="D6" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="46"/>
-      <c r="H6" s="46" t="s">
+      <c r="D20" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="40"/>
+      <c r="H20" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="58"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B21" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" s="46" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="50" t="s">
+      <c r="C21" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="45"/>
+      <c r="E21" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="57"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B22" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="41">
+        <v>12</v>
+      </c>
+      <c r="D22" s="45"/>
+      <c r="E22" s="43"/>
+      <c r="H22" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="I22" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="57"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B23" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="46"/>
-      <c r="H7" s="48" t="s">
+      <c r="C23" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="45"/>
+      <c r="E23" s="40"/>
+      <c r="H23" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="J23" s="95"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B24" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="72" t="s">
-        <v>104</v>
-      </c>
-      <c r="J7" s="46"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="50" t="s">
+      <c r="C24" s="41">
+        <v>1</v>
+      </c>
+      <c r="D24" s="45"/>
+      <c r="E24" s="40"/>
+      <c r="H24" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" s="57"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B25" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="45"/>
+      <c r="E25" s="40"/>
+      <c r="H25" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" s="57"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B26" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C26" s="41">
+        <v>9</v>
+      </c>
+      <c r="D26" s="45"/>
+      <c r="E26" s="40"/>
+      <c r="H26" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="J26" s="57"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B27" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="45"/>
+      <c r="E27" s="40"/>
+      <c r="H27" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="I27" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="J27" s="57"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B28" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="41">
         <v>2</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="46"/>
-      <c r="H8" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" s="73" t="s">
-        <v>105</v>
-      </c>
-      <c r="J8" s="46"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="50" t="s">
+      <c r="D28" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="J28" s="94"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B29" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="46"/>
-      <c r="H9" s="46" t="s">
+      <c r="C29" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="45"/>
+      <c r="E29" s="40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B30" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="41">
+        <v>30</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="40"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B31" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" s="46" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="50" t="s">
+      <c r="C31" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="45"/>
+      <c r="E31" s="40"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B32" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="47">
-        <v>2</v>
-      </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="46"/>
-      <c r="H10" s="48" t="s">
+      <c r="C32" s="41">
+        <v>6</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="40"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B33" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="45"/>
+      <c r="E33" s="40"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B34" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="J10" s="46"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="50" t="s">
+      <c r="C34" s="41">
+        <v>12</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="40"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B35" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="46"/>
-      <c r="H11" s="46" t="s">
+      <c r="C35" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="45"/>
+      <c r="E35" s="40"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B36" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="41">
+        <v>8</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="40"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B37" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" s="67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="50" t="s">
+      <c r="C37" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="45"/>
+      <c r="E37" s="40"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B38" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="47">
-        <v>3</v>
-      </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="46"/>
-      <c r="H12" s="46" t="s">
+      <c r="C38" s="41">
+        <v>9</v>
+      </c>
+      <c r="D38" s="45"/>
+      <c r="E38" s="40"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B39" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="J12" s="70" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="50" t="s">
+      <c r="C39" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="45"/>
+      <c r="E39" s="40"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B40" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="41">
+        <v>8</v>
+      </c>
+      <c r="D40" s="45"/>
+      <c r="E40" s="40"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B41" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="46"/>
-      <c r="H13" s="46" t="s">
+      <c r="C41" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="45"/>
+      <c r="E41" s="40"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B42" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="41">
+        <v>8</v>
+      </c>
+      <c r="D42" s="45"/>
+      <c r="E42" s="40"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B43" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="74">
-        <v>-10</v>
-      </c>
-      <c r="J13" s="68"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="50" t="s">
+      <c r="C43" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="45"/>
+      <c r="E43" s="40"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B44" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="47">
-        <v>3</v>
-      </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="46"/>
-      <c r="H14" s="46" t="s">
+      <c r="C44" s="41">
+        <v>6</v>
+      </c>
+      <c r="D44" s="45"/>
+      <c r="E44" s="40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B45" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" s="68"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="50" t="s">
+      <c r="C45" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="45"/>
+      <c r="E45" s="40"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B46" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="41">
+        <v>16</v>
+      </c>
+      <c r="D46" s="45"/>
+      <c r="E46" s="40"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B47" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="46"/>
-      <c r="H15" s="46" t="s">
+      <c r="C47" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="45"/>
+      <c r="E47" s="40"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B48" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="41">
+        <v>16</v>
+      </c>
+      <c r="D48" s="45"/>
+      <c r="E48" s="56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B49" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="J15" s="68"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="50" t="s">
+      <c r="C49" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="45"/>
+      <c r="E49" s="57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B50" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="47">
-        <v>4</v>
-      </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="46"/>
-      <c r="H16" s="46" t="s">
+      <c r="C50" s="41">
+        <v>11</v>
+      </c>
+      <c r="D50" s="45"/>
+      <c r="E50" s="55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B51" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="J16" s="68"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="50" t="s">
+      <c r="C51" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="45"/>
+      <c r="E51" s="40"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B52" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="41">
+        <v>11</v>
+      </c>
+      <c r="D52" s="45"/>
+      <c r="E52" s="40"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B53" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="46"/>
-      <c r="H17" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" s="68"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="47">
-        <v>4</v>
-      </c>
-      <c r="D18" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="46"/>
-      <c r="H18" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="76"/>
-      <c r="J18" s="66" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="46"/>
-      <c r="H19" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="J19" s="51"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B20" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="47">
-        <v>1</v>
-      </c>
-      <c r="D20" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="46"/>
-      <c r="H20" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="I20" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="51"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B21" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="I21" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="J21" s="51"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B22" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="47">
-        <v>12</v>
-      </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="49"/>
-      <c r="H22" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="I22" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" s="51"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="46"/>
-      <c r="H23" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="I23" s="77" t="s">
-        <v>94</v>
-      </c>
-      <c r="J23" s="51"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="47">
-        <v>1</v>
-      </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="46"/>
-      <c r="H24" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="I24" s="77" t="s">
-        <v>95</v>
-      </c>
-      <c r="J24" s="51"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B25" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="46"/>
-      <c r="H25" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="I25" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="J25" s="51"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B26" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="47">
-        <v>9</v>
-      </c>
-      <c r="D26" s="51"/>
-      <c r="E26" s="46"/>
-      <c r="H26" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="I26" s="77" t="s">
-        <v>96</v>
-      </c>
-      <c r="J26" s="51"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B27" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="46"/>
-      <c r="H27" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="I27" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="J27" s="51"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B28" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="47">
-        <v>2</v>
-      </c>
-      <c r="D28" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="I28" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="J28" s="51"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B29" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="51"/>
-      <c r="E29" s="46" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B30" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="47">
-        <v>30</v>
-      </c>
-      <c r="D30" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="46"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B31" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="46"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B32" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="47">
-        <v>6</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="46"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="46"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B34" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="47">
-        <v>12</v>
-      </c>
-      <c r="D34" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="46"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="51"/>
-      <c r="E35" s="46"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B36" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="47">
-        <v>8</v>
-      </c>
-      <c r="D36" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="46"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B37" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="51"/>
-      <c r="E37" s="46"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B38" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="47">
-        <v>9</v>
-      </c>
-      <c r="D38" s="51"/>
-      <c r="E38" s="46"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B39" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="51"/>
-      <c r="E39" s="46"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B40" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="47">
-        <v>8</v>
-      </c>
-      <c r="D40" s="51"/>
-      <c r="E40" s="46"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B41" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" s="51"/>
-      <c r="E41" s="46"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B42" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="47">
-        <v>8</v>
-      </c>
-      <c r="D42" s="51"/>
-      <c r="E42" s="46"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B43" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" s="51"/>
-      <c r="E43" s="46"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B44" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="47">
-        <v>6</v>
-      </c>
-      <c r="D44" s="51"/>
-      <c r="E44" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B45" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="D45" s="51"/>
-      <c r="E45" s="46"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B46" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="47">
-        <v>16</v>
-      </c>
-      <c r="D46" s="51"/>
-      <c r="E46" s="46"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B47" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" s="51"/>
-      <c r="E47" s="46"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B48" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="47">
-        <v>16</v>
-      </c>
-      <c r="D48" s="51"/>
-      <c r="E48" s="67" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B49" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49" s="51"/>
-      <c r="E49" s="68" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B50" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" s="47">
-        <v>11</v>
-      </c>
-      <c r="D50" s="51"/>
-      <c r="E50" s="66" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B51" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" s="51"/>
-      <c r="E51" s="46"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B52" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" s="47">
-        <v>11</v>
-      </c>
-      <c r="D52" s="51"/>
-      <c r="E52" s="46"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B53" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="47" t="s">
+      <c r="C53" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="D53" s="51" t="s">
+      <c r="D53" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="E53" s="46"/>
+      <c r="E53" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Java基礎総合課題/テスト計画書_対話型電卓プログラム.xlsx
+++ b/Java基礎総合課題/テスト計画書_対話型電卓プログラム.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="137">
   <si>
     <t>No</t>
     <phoneticPr fontId="4"/>
@@ -1197,6 +1197,20 @@
   </si>
   <si>
     <t>計算できる範囲は-2147483648～2147483647です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テストデータ</t>
+  </si>
+  <si>
+    <t>レビュー結果反映：テストデータに３＋＋＋４を追加</t>
+    <rPh sb="22" eb="24">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レビュー結果反映：</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1275,7 +1289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1873,6 +1887,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1886,7 +1913,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2097,6 +2124,66 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2118,65 +2205,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="45" xfId="3" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2824,10 +2860,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E10"/>
+  <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -3386,18 +3422,52 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="67">
+      <c r="B10" s="97">
         <v>42849</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="E10" s="69" t="s">
+      <c r="D10" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="99" t="s">
         <v>126</v>
       </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="97">
+        <v>42849</v>
+      </c>
+      <c r="C11" s="98" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="99" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="97">
+        <v>42850</v>
+      </c>
+      <c r="C12" s="98" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="67"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -3416,7 +3486,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -3972,7 +4042,7 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="90" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -3987,7 +4057,7 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="71"/>
+      <c r="B4" s="91"/>
       <c r="C4" s="38" t="s">
         <v>107</v>
       </c>
@@ -4015,7 +4085,7 @@
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="90" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="53" t="s">
@@ -4030,7 +4100,7 @@
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="71"/>
+      <c r="B7" s="91"/>
       <c r="C7" s="63" t="s">
         <v>112</v>
       </c>
@@ -4058,7 +4128,7 @@
       <c r="A9" s="54">
         <v>7</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="90" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="53" t="s">
@@ -4073,7 +4143,7 @@
       <c r="A10" s="54">
         <v>8</v>
       </c>
-      <c r="B10" s="72"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="53" t="s">
         <v>114</v>
       </c>
@@ -4086,7 +4156,7 @@
       <c r="A11" s="54">
         <v>9</v>
       </c>
-      <c r="B11" s="72"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="53" t="s">
         <v>115</v>
       </c>
@@ -4099,7 +4169,7 @@
       <c r="A12" s="54">
         <v>10</v>
       </c>
-      <c r="B12" s="72"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="53" t="s">
         <v>116</v>
       </c>
@@ -4112,7 +4182,7 @@
       <c r="A13" s="54">
         <v>11</v>
       </c>
-      <c r="B13" s="72"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="53" t="s">
         <v>128</v>
       </c>
@@ -4125,14 +4195,14 @@
       <c r="A14" s="54">
         <v>12</v>
       </c>
-      <c r="B14" s="71"/>
+      <c r="B14" s="91"/>
       <c r="C14" s="53" t="s">
         <v>129</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="50"/>
       <c r="F14" s="50"/>
-      <c r="G14" s="77"/>
+      <c r="G14" s="70"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="54">
@@ -4151,7 +4221,7 @@
     </row>
     <row r="16" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="89" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="4"/>
@@ -4162,7 +4232,7 @@
     </row>
     <row r="17" spans="1:7" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A17" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="65" t="s">
         <v>19</v>
@@ -4177,7 +4247,7 @@
     </row>
     <row r="18" spans="1:7" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A18" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>18</v>
@@ -4192,7 +4262,7 @@
     </row>
     <row r="19" spans="1:7" s="12" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A19" s="54">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>72</v>
@@ -4206,16 +4276,16 @@
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" s="12" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="78">
-        <v>16</v>
-      </c>
-      <c r="B20" s="79" t="s">
+      <c r="A20" s="71">
+        <v>17</v>
+      </c>
+      <c r="B20" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="81"/>
+      <c r="D20" s="74"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="21"/>
@@ -4256,17 +4326,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76"/>
-      <c r="H1" s="73" t="s">
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96"/>
+      <c r="H1" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
@@ -4276,14 +4346,14 @@
         <v>87</v>
       </c>
       <c r="C2" s="48"/>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="H2" s="73" t="s">
+      <c r="E2" s="96"/>
+      <c r="H2" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="73"/>
+      <c r="I2" s="93"/>
       <c r="J2" s="49" t="s">
         <v>88</v>
       </c>
@@ -4333,7 +4403,7 @@
         <v>27</v>
       </c>
       <c r="E5" s="40"/>
-      <c r="H5" s="88" t="s">
+      <c r="H5" s="81" t="s">
         <v>111</v>
       </c>
       <c r="I5" s="61" t="s">
@@ -4371,7 +4441,7 @@
       </c>
       <c r="D7" s="45"/>
       <c r="E7" s="40"/>
-      <c r="H7" s="85" t="s">
+      <c r="H7" s="78" t="s">
         <v>26</v>
       </c>
       <c r="I7" s="60" t="s">
@@ -4388,7 +4458,7 @@
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="40"/>
-      <c r="H8" s="88" t="s">
+      <c r="H8" s="81" t="s">
         <v>111</v>
       </c>
       <c r="I8" s="61" t="s">
@@ -4444,7 +4514,7 @@
       <c r="H11" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="89" t="s">
+      <c r="I11" s="82" t="s">
         <v>82</v>
       </c>
       <c r="J11" s="56" t="s">
@@ -4463,7 +4533,7 @@
       <c r="H12" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="90" t="s">
+      <c r="I12" s="83" t="s">
         <v>109</v>
       </c>
       <c r="J12" s="58" t="s">
@@ -4482,7 +4552,7 @@
       <c r="H13" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="90">
+      <c r="I13" s="83">
         <v>-10</v>
       </c>
       <c r="J13" s="57" t="s">
@@ -4501,7 +4571,7 @@
       <c r="H14" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="90" t="s">
+      <c r="I14" s="83" t="s">
         <v>83</v>
       </c>
       <c r="J14" s="57"/>
@@ -4518,7 +4588,7 @@
       <c r="H15" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="91" t="s">
+      <c r="I15" s="84" t="s">
         <v>85</v>
       </c>
       <c r="J15" s="57"/>
@@ -4535,7 +4605,7 @@
       <c r="H16" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="91" t="s">
+      <c r="I16" s="84" t="s">
         <v>108</v>
       </c>
       <c r="J16" s="57"/>
@@ -4568,10 +4638,10 @@
         <v>43</v>
       </c>
       <c r="E18" s="40"/>
-      <c r="H18" s="92" t="s">
+      <c r="H18" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="93"/>
+      <c r="I18" s="86"/>
       <c r="J18" s="55" t="s">
         <v>110</v>
       </c>
@@ -4584,10 +4654,10 @@
         <v>27</v>
       </c>
       <c r="E19" s="40"/>
-      <c r="H19" s="85" t="s">
+      <c r="H19" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="82" t="s">
+      <c r="I19" s="75" t="s">
         <v>93</v>
       </c>
       <c r="J19" s="56" t="s">
@@ -4605,10 +4675,10 @@
         <v>36</v>
       </c>
       <c r="E20" s="40"/>
-      <c r="H20" s="86" t="s">
+      <c r="H20" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="I20" s="83" t="s">
+      <c r="I20" s="76" t="s">
         <v>30</v>
       </c>
       <c r="J20" s="58"/>
@@ -4624,10 +4694,10 @@
       <c r="E21" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="86" t="s">
+      <c r="H21" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="I21" s="83" t="s">
+      <c r="I21" s="76" t="s">
         <v>50</v>
       </c>
       <c r="J21" s="57"/>
@@ -4641,10 +4711,10 @@
       </c>
       <c r="D22" s="45"/>
       <c r="E22" s="43"/>
-      <c r="H22" s="86" t="s">
+      <c r="H22" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="I22" s="83" t="s">
+      <c r="I22" s="76" t="s">
         <v>67</v>
       </c>
       <c r="J22" s="57"/>
@@ -4658,13 +4728,13 @@
       </c>
       <c r="D23" s="45"/>
       <c r="E23" s="40"/>
-      <c r="H23" s="86" t="s">
+      <c r="H23" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="I23" s="83" t="s">
+      <c r="I23" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="J23" s="95"/>
+      <c r="J23" s="88"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="44" t="s">
@@ -4675,10 +4745,10 @@
       </c>
       <c r="D24" s="45"/>
       <c r="E24" s="40"/>
-      <c r="H24" s="86" t="s">
+      <c r="H24" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="I24" s="83" t="s">
+      <c r="I24" s="76" t="s">
         <v>95</v>
       </c>
       <c r="J24" s="57"/>
@@ -4692,10 +4762,10 @@
       </c>
       <c r="D25" s="45"/>
       <c r="E25" s="40"/>
-      <c r="H25" s="86" t="s">
+      <c r="H25" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="I25" s="83" t="s">
+      <c r="I25" s="76" t="s">
         <v>69</v>
       </c>
       <c r="J25" s="57"/>
@@ -4709,10 +4779,10 @@
       </c>
       <c r="D26" s="45"/>
       <c r="E26" s="40"/>
-      <c r="H26" s="86" t="s">
+      <c r="H26" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="I26" s="83" t="s">
+      <c r="I26" s="76" t="s">
         <v>96</v>
       </c>
       <c r="J26" s="57"/>
@@ -4726,10 +4796,10 @@
       </c>
       <c r="D27" s="45"/>
       <c r="E27" s="40"/>
-      <c r="H27" s="86" t="s">
+      <c r="H27" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="I27" s="83" t="s">
+      <c r="I27" s="76" t="s">
         <v>97</v>
       </c>
       <c r="J27" s="57"/>
@@ -4747,13 +4817,13 @@
       <c r="E28" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="87" t="s">
+      <c r="H28" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="I28" s="84" t="s">
+      <c r="I28" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="J28" s="94"/>
+      <c r="J28" s="87"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="44" t="s">

--- a/Java基礎総合課題/テスト計画書_対話型電卓プログラム.xlsx
+++ b/Java基礎総合課題/テスト計画書_対話型電卓プログラム.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="142">
   <si>
     <t>No</t>
     <phoneticPr fontId="4"/>
@@ -1210,7 +1210,45 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>レビュー結果反映：</t>
+    <t>*/は左から評価される</t>
+    <rPh sb="3" eb="4">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10*4/5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レビュー結果反映：テストデータに10*4/5を追加</t>
+    <rPh sb="23" eb="25">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>*/は左から評価されることを確認する。</t>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスト項目</t>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>*/は左から評価されることを確認するを追加</t>
+    <rPh sb="19" eb="21">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1289,7 +1327,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1595,19 +1633,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1702,19 +1727,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1900,6 +1912,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1913,7 +1971,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2034,184 +2092,187 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="45" xfId="3" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2860,10 +2921,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E13"/>
+  <dimension ref="A2:E15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -3422,52 +3483,72 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="97">
+      <c r="B10" s="85">
         <v>42849</v>
       </c>
-      <c r="C10" s="98" t="s">
+      <c r="C10" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="98" t="s">
+      <c r="D10" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="99" t="s">
+      <c r="E10" s="87" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="97">
+      <c r="B11" s="85">
         <v>42849</v>
       </c>
-      <c r="C11" s="98" t="s">
+      <c r="C11" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="98" t="s">
+      <c r="D11" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="99" t="s">
+      <c r="E11" s="87" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="97">
-        <v>42850</v>
-      </c>
-      <c r="C12" s="98" t="s">
+      <c r="B12" s="85">
+        <v>42851</v>
+      </c>
+      <c r="C12" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="98" t="s">
+      <c r="D12" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="100" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="85">
+        <v>42851</v>
+      </c>
+      <c r="C13" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="E12" s="99" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="67"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
+      <c r="E13" s="87" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="85"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="87"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -3482,11 +3563,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -4042,7 +4123,7 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="88" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -4057,7 +4138,7 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="91"/>
+      <c r="B4" s="89"/>
       <c r="C4" s="38" t="s">
         <v>107</v>
       </c>
@@ -4085,7 +4166,7 @@
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="88" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="53" t="s">
@@ -4100,8 +4181,8 @@
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="63" t="s">
+      <c r="B7" s="90"/>
+      <c r="C7" s="37" t="s">
         <v>112</v>
       </c>
       <c r="D7" s="19"/>
@@ -4113,39 +4194,39 @@
       <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>23</v>
+      <c r="B8" s="89"/>
+      <c r="C8" s="62" t="s">
+        <v>139</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A9" s="54">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C10" s="53" t="s">
         <v>117</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="54">
-        <v>8</v>
-      </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="53" t="s">
-        <v>114</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="50"/>
@@ -4153,12 +4234,12 @@
       <c r="G10" s="51"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="54">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="92"/>
+      <c r="B11" s="90"/>
       <c r="C11" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="50"/>
@@ -4166,12 +4247,12 @@
       <c r="G11" s="51"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="54">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="92"/>
+      <c r="B12" s="90"/>
       <c r="C12" s="53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="50"/>
@@ -4179,123 +4260,162 @@
       <c r="G12" s="51"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="54">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="92"/>
+      <c r="B13" s="90"/>
       <c r="C13" s="53" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
-      <c r="G13" s="8"/>
+      <c r="G13" s="51"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="54">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="91"/>
+      <c r="B14" s="90"/>
       <c r="C14" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="50"/>
       <c r="F14" s="50"/>
-      <c r="G14" s="70"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="54">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="89"/>
+      <c r="C15" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="68"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C16" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="89" t="s">
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="95"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="98"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="6">
-        <v>14</v>
-      </c>
-      <c r="B17" s="65" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="6">
+        <v>15</v>
+      </c>
+      <c r="B19" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C19" s="37" t="s">
         <v>99</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A18" s="6">
-        <v>15</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A19" s="54">
-        <v>16</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="66" t="s">
-        <v>101</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="14"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" s="12" customFormat="1" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="71">
+      <c r="A20" s="6">
+        <v>16</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A21" s="6">
         <v>17</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B21" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A22" s="6">
+        <v>18</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C22" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="21"/>
-    </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.4"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="98"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.42" right="0.46" top="0.34" bottom="0.33" header="0.35" footer="0.28999999999999998"/>
@@ -4308,10 +4428,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4326,17 +4446,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="96"/>
-      <c r="H1" s="93" t="s">
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="94"/>
+      <c r="H1" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
@@ -4346,14 +4466,14 @@
         <v>87</v>
       </c>
       <c r="C2" s="48"/>
-      <c r="D2" s="94" t="s">
+      <c r="D2" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="H2" s="93" t="s">
+      <c r="E2" s="94"/>
+      <c r="H2" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="93"/>
+      <c r="I2" s="91"/>
       <c r="J2" s="49" t="s">
         <v>88</v>
       </c>
@@ -4369,7 +4489,7 @@
       <c r="H3" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="58" t="s">
         <v>76</v>
       </c>
       <c r="J3" s="40" t="s">
@@ -4387,13 +4507,13 @@
         <v>28</v>
       </c>
       <c r="E4" s="40"/>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="J4" s="56"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B5" s="44" t="s">
@@ -4403,13 +4523,13 @@
         <v>27</v>
       </c>
       <c r="E5" s="40"/>
-      <c r="H5" s="81" t="s">
+      <c r="H5" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="J5" s="55"/>
+      <c r="J5" s="54"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B6" s="44" t="s">
@@ -4425,7 +4545,7 @@
       <c r="H6" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="58" t="s">
         <v>78</v>
       </c>
       <c r="J6" s="40" t="s">
@@ -4441,13 +4561,13 @@
       </c>
       <c r="D7" s="45"/>
       <c r="E7" s="40"/>
-      <c r="H7" s="78" t="s">
+      <c r="H7" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="60" t="s">
+      <c r="I7" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="J7" s="56"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B8" s="44" t="s">
@@ -4458,13 +4578,13 @@
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="40"/>
-      <c r="H8" s="81" t="s">
+      <c r="H8" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="I8" s="61" t="s">
+      <c r="I8" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="J8" s="55"/>
+      <c r="J8" s="54"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B9" s="44" t="s">
@@ -4478,7 +4598,7 @@
       <c r="H9" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="58" t="s">
         <v>80</v>
       </c>
       <c r="J9" s="40" t="s">
@@ -4497,7 +4617,7 @@
       <c r="H10" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="59" t="s">
+      <c r="I10" s="58" t="s">
         <v>103</v>
       </c>
       <c r="J10" s="40"/>
@@ -4511,13 +4631,13 @@
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="40"/>
-      <c r="H11" s="56" t="s">
+      <c r="H11" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="82" t="s">
+      <c r="I11" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="56" t="s">
+      <c r="J11" s="55" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4530,13 +4650,13 @@
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="40"/>
-      <c r="H12" s="57" t="s">
+      <c r="H12" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="83" t="s">
+      <c r="I12" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="J12" s="58" t="s">
+      <c r="J12" s="57" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4549,13 +4669,13 @@
       </c>
       <c r="D13" s="45"/>
       <c r="E13" s="40"/>
-      <c r="H13" s="57" t="s">
+      <c r="H13" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="83">
+      <c r="I13" s="78">
         <v>-10</v>
       </c>
-      <c r="J13" s="57" t="s">
+      <c r="J13" s="56" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4568,13 +4688,13 @@
       </c>
       <c r="D14" s="45"/>
       <c r="E14" s="40"/>
-      <c r="H14" s="57" t="s">
+      <c r="H14" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="83" t="s">
+      <c r="I14" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="57"/>
+      <c r="J14" s="56"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B15" s="44" t="s">
@@ -4585,13 +4705,13 @@
       </c>
       <c r="D15" s="45"/>
       <c r="E15" s="40"/>
-      <c r="H15" s="57" t="s">
+      <c r="H15" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="84" t="s">
+      <c r="I15" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="J15" s="57"/>
+      <c r="J15" s="56"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B16" s="44" t="s">
@@ -4602,13 +4722,13 @@
       </c>
       <c r="D16" s="45"/>
       <c r="E16" s="40"/>
-      <c r="H16" s="57" t="s">
+      <c r="H16" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="84" t="s">
+      <c r="I16" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="57"/>
+      <c r="J16" s="56"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="44" t="s">
@@ -4619,13 +4739,13 @@
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="40"/>
-      <c r="H17" s="57" t="s">
+      <c r="H17" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="62" t="s">
+      <c r="I17" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="J17" s="57"/>
+      <c r="J17" s="56"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="44" t="s">
@@ -4638,11 +4758,11 @@
         <v>43</v>
       </c>
       <c r="E18" s="40"/>
-      <c r="H18" s="85" t="s">
+      <c r="H18" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="86"/>
-      <c r="J18" s="55" t="s">
+      <c r="I18" s="81"/>
+      <c r="J18" s="54" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4654,13 +4774,13 @@
         <v>27</v>
       </c>
       <c r="E19" s="40"/>
-      <c r="H19" s="78" t="s">
+      <c r="H19" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="75" t="s">
+      <c r="I19" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="J19" s="56" t="s">
+      <c r="J19" s="55" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4675,13 +4795,13 @@
         <v>36</v>
       </c>
       <c r="E20" s="40"/>
-      <c r="H20" s="79" t="s">
+      <c r="H20" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="I20" s="76" t="s">
+      <c r="I20" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="58"/>
+      <c r="J20" s="57"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="44" t="s">
@@ -4694,13 +4814,13 @@
       <c r="E21" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="79" t="s">
+      <c r="H21" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="I21" s="76" t="s">
+      <c r="I21" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="J21" s="57"/>
+      <c r="J21" s="56"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="44" t="s">
@@ -4711,13 +4831,13 @@
       </c>
       <c r="D22" s="45"/>
       <c r="E22" s="43"/>
-      <c r="H22" s="79" t="s">
+      <c r="H22" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="I22" s="76" t="s">
+      <c r="I22" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="57"/>
+      <c r="J22" s="56"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="44" t="s">
@@ -4728,13 +4848,13 @@
       </c>
       <c r="D23" s="45"/>
       <c r="E23" s="40"/>
-      <c r="H23" s="79" t="s">
+      <c r="H23" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="I23" s="76" t="s">
+      <c r="I23" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="J23" s="88"/>
+      <c r="J23" s="83"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="44" t="s">
@@ -4745,13 +4865,13 @@
       </c>
       <c r="D24" s="45"/>
       <c r="E24" s="40"/>
-      <c r="H24" s="79" t="s">
+      <c r="H24" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="I24" s="76" t="s">
+      <c r="I24" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="J24" s="57"/>
+      <c r="J24" s="56"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="44" t="s">
@@ -4762,13 +4882,13 @@
       </c>
       <c r="D25" s="45"/>
       <c r="E25" s="40"/>
-      <c r="H25" s="79" t="s">
+      <c r="H25" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="I25" s="76" t="s">
+      <c r="I25" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="J25" s="57"/>
+      <c r="J25" s="56"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="44" t="s">
@@ -4779,13 +4899,13 @@
       </c>
       <c r="D26" s="45"/>
       <c r="E26" s="40"/>
-      <c r="H26" s="79" t="s">
+      <c r="H26" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="I26" s="76" t="s">
+      <c r="I26" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="J26" s="57"/>
+      <c r="J26" s="56"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="44" t="s">
@@ -4796,13 +4916,13 @@
       </c>
       <c r="D27" s="45"/>
       <c r="E27" s="40"/>
-      <c r="H27" s="79" t="s">
+      <c r="H27" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="I27" s="76" t="s">
+      <c r="I27" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="J27" s="57"/>
+      <c r="J27" s="56"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="44" t="s">
@@ -4817,13 +4937,13 @@
       <c r="E28" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="80" t="s">
+      <c r="H28" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="I28" s="77" t="s">
+      <c r="I28" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="J28" s="87"/>
+      <c r="J28" s="82"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="44" t="s">
@@ -5035,7 +5155,7 @@
         <v>16</v>
       </c>
       <c r="D48" s="45"/>
-      <c r="E48" s="56" t="s">
+      <c r="E48" s="55" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5047,7 +5167,7 @@
         <v>75</v>
       </c>
       <c r="D49" s="45"/>
-      <c r="E49" s="57" t="s">
+      <c r="E49" s="56" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5059,7 +5179,7 @@
         <v>11</v>
       </c>
       <c r="D50" s="45"/>
-      <c r="E50" s="55" t="s">
+      <c r="E50" s="54" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5088,12 +5208,33 @@
         <v>25</v>
       </c>
       <c r="C53" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" s="40"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B54" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="41">
+        <v>8</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="40"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B55" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="D53" s="45" t="s">
+      <c r="D55" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="E53" s="40"/>
+      <c r="E55" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Java基礎総合課題/テスト計画書_対話型電卓プログラム.xlsx
+++ b/Java基礎総合課題/テスト計画書_対話型電卓プログラム.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18360" windowHeight="4710" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18360" windowHeight="4710"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -2236,6 +2236,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2256,24 +2274,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2519,7 +2519,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>0</a:t>
+            <a:t>1</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -2579,7 +2579,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>4</a:t>
+            <a:t>6</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -2898,7 +2898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -3520,7 +3520,7 @@
       <c r="D12" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="E12" s="100" t="s">
+      <c r="E12" s="93" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
@@ -4123,7 +4123,7 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="94" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -4138,7 +4138,7 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="89"/>
+      <c r="B4" s="95"/>
       <c r="C4" s="38" t="s">
         <v>107</v>
       </c>
@@ -4166,7 +4166,7 @@
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="94" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="53" t="s">
@@ -4181,7 +4181,7 @@
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="90"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="37" t="s">
         <v>112</v>
       </c>
@@ -4194,7 +4194,7 @@
       <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="89"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="62" t="s">
         <v>139</v>
       </c>
@@ -4222,7 +4222,7 @@
       <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="94" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="53" t="s">
@@ -4237,7 +4237,7 @@
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="90"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="53" t="s">
         <v>114</v>
       </c>
@@ -4250,7 +4250,7 @@
       <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="90"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="53" t="s">
         <v>115</v>
       </c>
@@ -4263,7 +4263,7 @@
       <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="90"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="53" t="s">
         <v>116</v>
       </c>
@@ -4276,7 +4276,7 @@
       <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="90"/>
+      <c r="B14" s="96"/>
       <c r="C14" s="53" t="s">
         <v>128</v>
       </c>
@@ -4289,7 +4289,7 @@
       <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="53" t="s">
         <v>129</v>
       </c>
@@ -4305,20 +4305,20 @@
       <c r="B16" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="97" t="s">
+      <c r="C16" s="90" t="s">
         <v>113</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
       <c r="F16" s="50"/>
-      <c r="G16" s="95"/>
+      <c r="G16" s="88"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="98"/>
+      <c r="A17" s="91"/>
       <c r="B17" s="63"/>
       <c r="C17" s="64"/>
       <c r="D17" s="52"/>
-      <c r="E17" s="96"/>
+      <c r="E17" s="89"/>
       <c r="F17" s="22"/>
       <c r="G17" s="10"/>
     </row>
@@ -4394,9 +4394,9 @@
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="98"/>
+      <c r="A23" s="91"/>
       <c r="B23" s="63"/>
-      <c r="C23" s="99"/>
+      <c r="C23" s="92"/>
       <c r="D23" s="69"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
@@ -4446,17 +4446,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="94"/>
-      <c r="H1" s="91" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="100"/>
+      <c r="H1" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
@@ -4466,14 +4466,14 @@
         <v>87</v>
       </c>
       <c r="C2" s="48"/>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="94"/>
-      <c r="H2" s="91" t="s">
+      <c r="E2" s="100"/>
+      <c r="H2" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="91"/>
+      <c r="I2" s="97"/>
       <c r="J2" s="49" t="s">
         <v>88</v>
       </c>
